--- a/Code/Hammouche/results_extra.xlsx
+++ b/Code/Hammouche/results_extra.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="432">
   <si>
     <t>final_1</t>
   </si>
@@ -205,6 +205,1110 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>final_1</t>
+  </si>
+  <si>
+    <t>final_2</t>
+  </si>
+  <si>
+    <t>final_3</t>
+  </si>
+  <si>
+    <t>final_4</t>
+  </si>
+  <si>
+    <t>final_5</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Homogeneity</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -225,7 +1329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -235,14 +1339,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -252,7 +1360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:F53"/>
+  <dimension ref="B3:F325"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="true"/>
@@ -264,19 +1372,19 @@
   <sheetData>
     <row r="3">
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>36</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
@@ -293,7 +1401,7 @@
         <v>0.99891068474929967</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5">
@@ -310,7 +1418,7 @@
         <v>0.99888440740772599</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6">
@@ -327,7 +1435,7 @@
         <v>0.99870906587395092</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>38</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7">
@@ -344,7 +1452,7 @@
         <v>0.99740762081127232</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>38</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
@@ -361,7 +1469,7 @@
         <v>0.99839278223537042</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>39</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9">
@@ -378,7 +1486,7 @@
         <v>0.99844008145020346</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>40</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10">
@@ -395,7 +1503,7 @@
         <v>0.99823559595577382</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11">
@@ -412,7 +1520,7 @@
         <v>0.99810373147805753</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12">
@@ -429,7 +1537,7 @@
         <v>0.99864170032555244</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13">
@@ -446,7 +1554,7 @@
         <v>0.9987004660167087</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>41</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14">
@@ -463,7 +1571,7 @@
         <v>0.99872148788996762</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>42</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15">
@@ -480,7 +1588,7 @@
         <v>0.99839517108460452</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>43</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16">
@@ -497,7 +1605,7 @@
         <v>0.99870667702471683</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17">
@@ -514,7 +1622,7 @@
         <v>0.99875684285863064</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18">
@@ -531,7 +1639,7 @@
         <v>0.997737282005563</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19">
@@ -548,7 +1656,7 @@
         <v>0.99724040136489278</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20">
@@ -565,7 +1673,7 @@
         <v>0.99904971577471802</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +1690,7 @@
         <v>0.99878025358112388</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22">
@@ -599,7 +1707,7 @@
         <v>0.99756576263056251</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +1724,7 @@
         <v>0.99871097695333799</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>50</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +1741,7 @@
         <v>0.9986603333495776</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>51</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25">
@@ -650,7 +1758,7 @@
         <v>0.99866606658773904</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -667,7 +1775,7 @@
         <v>0.99876162055709872</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27">
@@ -684,7 +1792,7 @@
         <v>0.99882420840702935</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
@@ -701,7 +1809,7 @@
         <v>0.99845775893453514</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
@@ -718,7 +1826,7 @@
         <v>0.99724374575382047</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
@@ -735,398 +1843,5022 @@
         <v>0.99827620639275161</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="0">
-        <v>0.0030128166539102118</v>
+        <v>0.0045655686560047547</v>
       </c>
       <c r="C31" s="0">
-        <v>0.99130133849615998</v>
+        <v>0.98767852251212096</v>
       </c>
       <c r="D31" s="0">
-        <v>0.65064220897602298</v>
+        <v>0.62491784139128725</v>
       </c>
       <c r="E31" s="0">
-        <v>0.99849359167304486</v>
+        <v>0.99771721567199778</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="0">
-        <v>0.002726154745831219</v>
+        <v>0.0030128166539102118</v>
       </c>
       <c r="C32" s="0">
-        <v>0.9920805027246874</v>
+        <v>0.99130133849615998</v>
       </c>
       <c r="D32" s="0">
-        <v>0.65304796904085205</v>
+        <v>0.65064220897602298</v>
       </c>
       <c r="E32" s="0">
-        <v>0.99863692262708437</v>
+        <v>0.99849359167304486</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>57</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="0">
-        <v>0.0050720046936109748</v>
+        <v>0.002726154745831219</v>
       </c>
       <c r="C33" s="0">
-        <v>0.98509761689238107</v>
+        <v>0.9920805027246874</v>
       </c>
       <c r="D33" s="0">
-        <v>0.65460515635313588</v>
+        <v>0.65304796904085205</v>
       </c>
       <c r="E33" s="0">
-        <v>0.9974639976531946</v>
+        <v>0.99863692262708437</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="0">
-        <v>0.0046104790216037967</v>
+        <v>0.0050720046936109748</v>
       </c>
       <c r="C34" s="0">
-        <v>0.98820018517256836</v>
+        <v>0.98509761689238107</v>
       </c>
       <c r="D34" s="0">
-        <v>0.60468608485972386</v>
+        <v>0.65460515635313588</v>
       </c>
       <c r="E34" s="0">
-        <v>0.99769476048919803</v>
+        <v>0.9974639976531946</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>59</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="0">
-        <v>0.0019550342130987292</v>
+        <v>0.0046104790216037967</v>
       </c>
       <c r="C35" s="0">
-        <v>0.99044274964904722</v>
+        <v>0.98820018517256836</v>
       </c>
       <c r="D35" s="0">
-        <v>0.79348846554041019</v>
+        <v>0.60468608485972386</v>
       </c>
       <c r="E35" s="0">
-        <v>0.99902248289345064</v>
+        <v>0.99769476048919803</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="0">
-        <v>0.0031045484644954893</v>
+        <v>0.0019550342130987292</v>
       </c>
       <c r="C36" s="0">
-        <v>0.9862223382158557</v>
+        <v>0.99044274964904722</v>
       </c>
       <c r="D36" s="0">
-        <v>0.77157306222292565</v>
+        <v>0.79348846554041019</v>
       </c>
       <c r="E36" s="0">
-        <v>0.99844772576775231</v>
+        <v>0.99902248289345064</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="0">
-        <v>0.0024710256476409157</v>
+        <v>0.0022932952646319404</v>
       </c>
       <c r="C37" s="0">
-        <v>0.99455097832992179</v>
+        <v>0.99505717683607542</v>
       </c>
       <c r="D37" s="0">
-        <v>0.54405447457945755</v>
+        <v>0.53374730475960208</v>
       </c>
       <c r="E37" s="0">
-        <v>0.99876448717617938</v>
+        <v>0.99885335236768391</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="0">
-        <v>0.0036769167409598778</v>
+        <v>0.0024710256476409157</v>
       </c>
       <c r="C38" s="0">
-        <v>0.9913694604617499</v>
+        <v>0.99455097832992179</v>
       </c>
       <c r="D38" s="0">
-        <v>0.57030104347638078</v>
+        <v>0.54405447457945755</v>
       </c>
       <c r="E38" s="0">
-        <v>0.9981615416295202</v>
+        <v>0.99876448717617938</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="0">
-        <v>0.0044384818767564012</v>
+        <v>0.0036769167409598778</v>
       </c>
       <c r="C39" s="0">
-        <v>0.9896212800548545</v>
+        <v>0.9913694604617499</v>
       </c>
       <c r="D39" s="0">
-        <v>0.56792907036750706</v>
+        <v>0.57030104347638078</v>
       </c>
       <c r="E39" s="0">
-        <v>0.99778075906162167</v>
+        <v>0.9981615416295202</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="0">
-        <v>0.0016377950348246441</v>
+        <v>0.0044384818767564012</v>
       </c>
       <c r="C40" s="0">
-        <v>0.99143931378224959</v>
+        <v>0.9896212800548545</v>
       </c>
       <c r="D40" s="0">
-        <v>0.80704902863605887</v>
+        <v>0.56792907036750706</v>
       </c>
       <c r="E40" s="0">
-        <v>0.99918110248258774</v>
+        <v>0.99778075906162167</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="0">
-        <v>0.0039425567757797441</v>
+        <v>0.0016377950348246441</v>
       </c>
       <c r="C41" s="0">
-        <v>0.98956792570473373</v>
+        <v>0.99143931378224959</v>
       </c>
       <c r="D41" s="0">
-        <v>0.61814653973565692</v>
+        <v>0.80704902863605887</v>
       </c>
       <c r="E41" s="0">
-        <v>0.99802872161211009</v>
+        <v>0.99918110248258774</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="0">
-        <v>0.0016416171935990306</v>
+        <v>0.0039425567757797441</v>
       </c>
       <c r="C42" s="0">
-        <v>0.98575564603301224</v>
+        <v>0.98956792570473373</v>
       </c>
       <c r="D42" s="0">
-        <v>0.88311420885550629</v>
+        <v>0.61814653973565692</v>
       </c>
       <c r="E42" s="0">
-        <v>0.99917919140320055</v>
+        <v>0.99802872161211009</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" s="0">
-        <v>0.0023640052019580919</v>
+        <v>0.0016416171935990306</v>
       </c>
       <c r="C43" s="0">
-        <v>0.9918225137888288</v>
+        <v>0.98575564603301224</v>
       </c>
       <c r="D43" s="0">
-        <v>0.70855455328138373</v>
+        <v>0.88311420885550629</v>
       </c>
       <c r="E43" s="0">
-        <v>0.998817997399021</v>
+        <v>0.99917919140320055</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="0">
-        <v>0.0024614702507049493</v>
+        <v>0.0023640052019580919</v>
       </c>
       <c r="C44" s="0">
-        <v>0.99362832533223211</v>
+        <v>0.9918225137888288</v>
       </c>
       <c r="D44" s="0">
-        <v>0.61123009843123355</v>
+        <v>0.70855455328138373</v>
       </c>
       <c r="E44" s="0">
-        <v>0.99876926487464757</v>
+        <v>0.998817997399021</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" s="0">
-        <v>0.002020010912263301</v>
+        <v>0.0035517410410987179</v>
       </c>
       <c r="C45" s="0">
-        <v>0.99166814592097263</v>
+        <v>0.99245610479683777</v>
       </c>
       <c r="D45" s="0">
-        <v>0.75553972363910959</v>
+        <v>0.525650908222276</v>
       </c>
       <c r="E45" s="0">
-        <v>0.9989899945438685</v>
+        <v>0.99822412947945061</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" s="0">
-        <v>0.0025742239345493533</v>
+        <v>0.0055249305083757833</v>
       </c>
       <c r="C46" s="0">
-        <v>0.99467223861739806</v>
+        <v>0.98799421407422061</v>
       </c>
       <c r="D46" s="0">
-        <v>0.51426062571578579</v>
+        <v>0.53431660359618061</v>
       </c>
       <c r="E46" s="0">
-        <v>0.99871288803272529</v>
+        <v>0.99723753474581223</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" s="0">
-        <v>0.0022827843280023774</v>
+        <v>0.0022588958356624615</v>
       </c>
       <c r="C47" s="0">
-        <v>0.99227886168012958</v>
+        <v>0.99039358031325464</v>
       </c>
       <c r="D47" s="0">
-        <v>0.70206856934861162</v>
+        <v>0.76260180237408048</v>
       </c>
       <c r="E47" s="0">
-        <v>0.99885860783599878</v>
+        <v>0.99887055208216879</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" s="0">
-        <v>0.0033883437534936922</v>
+        <v>0.0041565976671453925</v>
       </c>
       <c r="C48" s="0">
-        <v>0.98678689817872267</v>
+        <v>0.98446633518773918</v>
       </c>
       <c r="D48" s="0">
-        <v>0.7401849593683727</v>
+        <v>0.72827426539531892</v>
       </c>
       <c r="E48" s="0">
-        <v>0.99830582812325319</v>
+        <v>0.99792170116642742</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" s="0">
-        <v>0.0065894017270424418</v>
+        <v>0.0023955380118467809</v>
       </c>
       <c r="C49" s="0">
-        <v>0.96628510778972188</v>
+        <v>0.99505805684207338</v>
       </c>
       <c r="D49" s="0">
-        <v>0.79800917809100125</v>
+        <v>0.51287414934630005</v>
       </c>
       <c r="E49" s="0">
-        <v>0.99670529913647865</v>
+        <v>0.99880223099407672</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" s="0">
-        <v>0.002030521848892864</v>
+        <v>0.0043620387012686702</v>
       </c>
       <c r="C50" s="0">
-        <v>0.99395985466012415</v>
+        <v>0.99109223486405007</v>
       </c>
       <c r="D50" s="0">
-        <v>0.66180257636249462</v>
+        <v>0.50596752845152104</v>
       </c>
       <c r="E50" s="0">
-        <v>0.99898473907555352</v>
+        <v>0.99781898064936569</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" s="0">
-        <v>0.0029851060027959093</v>
+        <v>0.0030080389554422286</v>
       </c>
       <c r="C51" s="0">
-        <v>0.99028370181840097</v>
+        <v>0.9889477104671911</v>
       </c>
       <c r="D51" s="0">
-        <v>0.68979712788366254</v>
+        <v>0.72483668117247013</v>
       </c>
       <c r="E51" s="0">
-        <v>0.99850744699860217</v>
+        <v>0.99849598052227884</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" s="0">
-        <v>0.0023257836142142265</v>
+        <v>0.0027758428098982445</v>
       </c>
       <c r="C52" s="0">
-        <v>0.99011240125617828</v>
+        <v>0.99404347670424786</v>
       </c>
       <c r="D52" s="0">
-        <v>0.76245733615164402</v>
+        <v>0.53121457823668883</v>
       </c>
       <c r="E52" s="0">
-        <v>0.99883710819289295</v>
+        <v>0.99861207859505075</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" s="0">
+        <v>0.007174192019523587</v>
+      </c>
+      <c r="C53" s="0">
+        <v>0.97727320920700544</v>
+      </c>
+      <c r="D53" s="0">
+        <v>0.6772061343118202</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0.99641290399023807</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="0">
+        <v>0.0045072807346953599</v>
+      </c>
+      <c r="C54" s="0">
+        <v>0.98362252072343481</v>
+      </c>
+      <c r="D54" s="0">
+        <v>0.72030091834144794</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0.99774635963265235</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="0">
+        <v>0.0033329224512650868</v>
+      </c>
+      <c r="C55" s="0">
+        <v>0.98165433737487207</v>
+      </c>
+      <c r="D55" s="0">
+        <v>0.81500459258326796</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0.99833353877436748</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="0">
+        <v>0.0056787723990448426</v>
+      </c>
+      <c r="C56" s="0">
+        <v>0.98762440501915272</v>
+      </c>
+      <c r="D56" s="0">
+        <v>0.53548483920886758</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0.9971606138004776</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="0">
+        <v>0.0045770351323279144</v>
+      </c>
+      <c r="C57" s="0">
+        <v>0.99010616217465475</v>
+      </c>
+      <c r="D57" s="0">
+        <v>0.53282918228966814</v>
+      </c>
+      <c r="E57" s="0">
+        <v>0.99771148243383601</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="0">
+        <v>0.0022961618837127303</v>
+      </c>
+      <c r="C58" s="0">
+        <v>0.99172713734888496</v>
+      </c>
+      <c r="D58" s="0">
+        <v>0.72015562257832166</v>
+      </c>
+      <c r="E58" s="0">
+        <v>0.99885191905814352</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="0">
+        <v>0.0038489138858072733</v>
+      </c>
+      <c r="C59" s="0">
+        <v>0.98165872746961891</v>
+      </c>
+      <c r="D59" s="0">
+        <v>0.78631601773013993</v>
+      </c>
+      <c r="E59" s="0">
+        <v>0.99807554305709623</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="0">
+        <v>0.0035565187395667011</v>
+      </c>
+      <c r="C60" s="0">
+        <v>0.99269276006955243</v>
+      </c>
+      <c r="D60" s="0">
+        <v>0.50974448883447732</v>
+      </c>
+      <c r="E60" s="0">
+        <v>0.99822174063021651</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="0">
+        <v>0.0024614702507049493</v>
+      </c>
+      <c r="C61" s="0">
+        <v>0.99362832533223211</v>
+      </c>
+      <c r="D61" s="0">
+        <v>0.61123009843123355</v>
+      </c>
+      <c r="E61" s="0">
+        <v>0.99876926487464757</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="0">
+        <v>0.0027032217931848997</v>
+      </c>
+      <c r="C62" s="0">
+        <v>0.99426168856017505</v>
+      </c>
+      <c r="D62" s="0">
+        <v>0.5262209418133641</v>
+      </c>
+      <c r="E62" s="0">
+        <v>0.9986483891034077</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="0">
+        <v>0.0020782988335726962</v>
+      </c>
+      <c r="C63" s="0">
+        <v>0.99550237918010853</v>
+      </c>
+      <c r="D63" s="0">
+        <v>0.53583752597530321</v>
+      </c>
+      <c r="E63" s="0">
+        <v>0.99896085058321349</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="0">
+        <v>0.0021537864693668305</v>
+      </c>
+      <c r="C64" s="0">
+        <v>0.98981178097301825</v>
+      </c>
+      <c r="D64" s="0">
+        <v>0.78645115001739874</v>
+      </c>
+      <c r="E64" s="0">
+        <v>0.99892310676531659</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="0">
+        <v>0.0019550342130987292</v>
+      </c>
+      <c r="C65" s="0">
+        <v>0.9959092435899487</v>
+      </c>
+      <c r="D65" s="0">
+        <v>0.52013369911392804</v>
+      </c>
+      <c r="E65" s="0">
+        <v>0.99902248289345064</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="0">
+        <v>0.0026239119986163784</v>
+      </c>
+      <c r="C66" s="0">
+        <v>0.99061979067034689</v>
+      </c>
+      <c r="D66" s="0">
+        <v>0.71765446085330475</v>
+      </c>
+      <c r="E66" s="0">
+        <v>0.99868804400069189</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="0">
+        <v>0.0031207926392866321</v>
+      </c>
+      <c r="C67" s="0">
+        <v>0.98812934571577171</v>
+      </c>
+      <c r="D67" s="0">
+        <v>0.73398914653101688</v>
+      </c>
+      <c r="E67" s="0">
+        <v>0.99843960368035667</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="0">
+        <v>0.0030338385271693378</v>
+      </c>
+      <c r="C68" s="0">
+        <v>0.99393099198110746</v>
+      </c>
+      <c r="D68" s="0">
+        <v>0.49708501821086437</v>
+      </c>
+      <c r="E68" s="0">
+        <v>0.99848308073641534</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="0">
+        <v>0.0023859826149108146</v>
+      </c>
+      <c r="C69" s="0">
+        <v>0.99511190058487853</v>
+      </c>
+      <c r="D69" s="0">
+        <v>0.50949898846304154</v>
+      </c>
+      <c r="E69" s="0">
+        <v>0.99880700869254446</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="0">
+        <v>0.0031456366713201451</v>
+      </c>
+      <c r="C70" s="0">
+        <v>0.98957697493023322</v>
+      </c>
+      <c r="D70" s="0">
+        <v>0.6950673567620641</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0.99842718166433986</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="0">
+        <v>0.0025235803307887311</v>
+      </c>
+      <c r="C71" s="0">
+        <v>0.9949510640357857</v>
+      </c>
+      <c r="D71" s="0">
+        <v>0.49765859770829751</v>
+      </c>
+      <c r="E71" s="0">
+        <v>0.99873820983460559</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="0">
+        <v>0.0062444518976540542</v>
+      </c>
+      <c r="C72" s="0">
+        <v>0.97930327412372586</v>
+      </c>
+      <c r="D72" s="0">
+        <v>0.69208247653384736</v>
+      </c>
+      <c r="E72" s="0">
+        <v>0.99687777405117295</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="0">
+        <v>0.0025818682520981264</v>
+      </c>
+      <c r="C73" s="0">
+        <v>0.99458763736468736</v>
+      </c>
+      <c r="D73" s="0">
+        <v>0.52039315263666519</v>
+      </c>
+      <c r="E73" s="0">
+        <v>0.99870906587395092</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="0">
+        <v>0.0023200503760526462</v>
+      </c>
+      <c r="C74" s="0">
+        <v>0.9917794023755917</v>
+      </c>
+      <c r="D74" s="0">
+        <v>0.71546127969440465</v>
+      </c>
+      <c r="E74" s="0">
+        <v>0.99883997481197373</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="0">
+        <v>0.002020010912263301</v>
+      </c>
+      <c r="C75" s="0">
+        <v>0.99166814592097263</v>
+      </c>
+      <c r="D75" s="0">
+        <v>0.75553972363910959</v>
+      </c>
+      <c r="E75" s="0">
+        <v>0.9989899945438685</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="0">
+        <v>0.002294250804325537</v>
+      </c>
+      <c r="C76" s="0">
+        <v>0.98990707931510347</v>
+      </c>
+      <c r="D76" s="0">
+        <v>0.77039813914033639</v>
+      </c>
+      <c r="E76" s="0">
+        <v>0.99885287459783711</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="0">
+        <v>0.0029593064310687997</v>
+      </c>
+      <c r="C77" s="0">
+        <v>0.98270626463960697</v>
+      </c>
+      <c r="D77" s="0">
+        <v>0.82592931019175719</v>
+      </c>
+      <c r="E77" s="0">
+        <v>0.99852034678446555</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="0">
+        <v>0.0025742239345493533</v>
+      </c>
+      <c r="C78" s="0">
+        <v>0.99467223861739806</v>
+      </c>
+      <c r="D78" s="0">
+        <v>0.51426062571578579</v>
+      </c>
+      <c r="E78" s="0">
+        <v>0.99871288803272529</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="0">
+        <v>0.0026898442374745468</v>
+      </c>
+      <c r="C79" s="0">
+        <v>0.99132772570607508</v>
+      </c>
+      <c r="D79" s="0">
+        <v>0.68715143613093566</v>
+      </c>
+      <c r="E79" s="0">
+        <v>0.99865507788126284</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="0">
+        <v>0.0029019740494530015</v>
+      </c>
+      <c r="C80" s="0">
+        <v>0.9934415459478223</v>
+      </c>
+      <c r="D80" s="0">
+        <v>0.55462807881805443</v>
+      </c>
+      <c r="E80" s="0">
+        <v>0.99854901297527365</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="0">
+        <v>0.0030691934958324138</v>
+      </c>
+      <c r="C81" s="0">
+        <v>0.99372714046300059</v>
+      </c>
+      <c r="D81" s="0">
+        <v>0.50765882652206595</v>
+      </c>
+      <c r="E81" s="0">
+        <v>0.99846540325208366</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="0">
+        <v>0.0023802493767492348</v>
+      </c>
+      <c r="C82" s="0">
+        <v>0.99155660690080516</v>
+      </c>
+      <c r="D82" s="0">
+        <v>0.71571868170379072</v>
+      </c>
+      <c r="E82" s="0">
+        <v>0.99880987531162535</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="0">
+        <v>0.0022827843280023774</v>
+      </c>
+      <c r="C83" s="0">
+        <v>0.99227886168012958</v>
+      </c>
+      <c r="D83" s="0">
+        <v>0.70206856934861162</v>
+      </c>
+      <c r="E83" s="0">
+        <v>0.99885860783599878</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="0">
+        <v>0.0026850665390065636</v>
+      </c>
+      <c r="C84" s="0">
+        <v>0.99460199279613171</v>
+      </c>
+      <c r="D84" s="0">
+        <v>0.49990403343382539</v>
+      </c>
+      <c r="E84" s="0">
+        <v>0.99865746673049682</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="0">
+        <v>0.0032669902124069184</v>
+      </c>
+      <c r="C85" s="0">
+        <v>0.99343334652756909</v>
+      </c>
+      <c r="D85" s="0">
+        <v>0.49923148351515167</v>
+      </c>
+      <c r="E85" s="0">
+        <v>0.99836650489379664</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="0">
+        <v>0.0026621335863602443</v>
+      </c>
+      <c r="C86" s="0">
+        <v>0.99374106646962146</v>
+      </c>
+      <c r="D86" s="0">
+        <v>0.57201153619176159</v>
+      </c>
+      <c r="E86" s="0">
+        <v>0.99866893320681993</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="0">
+        <v>0.0035307191678395915</v>
+      </c>
+      <c r="C87" s="0">
+        <v>0.99293017905866365</v>
+      </c>
+      <c r="D87" s="0">
+        <v>0.49707459107908936</v>
+      </c>
+      <c r="E87" s="0">
+        <v>0.99823464041608012</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="0">
+        <v>0.0032125244498719097</v>
+      </c>
+      <c r="C88" s="0">
+        <v>0.98922764545162756</v>
+      </c>
+      <c r="D88" s="0">
+        <v>0.69857845714357125</v>
+      </c>
+      <c r="E88" s="0">
+        <v>0.99839373777506402</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="0">
+        <v>0.0028207531754972869</v>
+      </c>
+      <c r="C89" s="0">
+        <v>0.99114656495664644</v>
+      </c>
+      <c r="D89" s="0">
+        <v>0.67858169479927155</v>
+      </c>
+      <c r="E89" s="0">
+        <v>0.99858962341225133</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="0">
+        <v>0.0033109450383123642</v>
+      </c>
+      <c r="C90" s="0">
+        <v>0.98896322873975395</v>
+      </c>
+      <c r="D90" s="0">
+        <v>0.69670784023717924</v>
+      </c>
+      <c r="E90" s="0">
+        <v>0.99834452748084379</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="0">
+        <v>0.0032794122284236747</v>
+      </c>
+      <c r="C91" s="0">
+        <v>0.98814224194090161</v>
+      </c>
+      <c r="D91" s="0">
+        <v>0.72016875670094771</v>
+      </c>
+      <c r="E91" s="0">
+        <v>0.99836029388578829</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="0">
+        <v>0.0040648658565601145</v>
+      </c>
+      <c r="C92" s="0">
+        <v>0.99076358056087299</v>
+      </c>
+      <c r="D92" s="0">
+        <v>0.55586057183617532</v>
+      </c>
+      <c r="E92" s="0">
+        <v>0.99796756707172007</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="0">
+        <v>0.0033883437534936922</v>
+      </c>
+      <c r="C93" s="0">
+        <v>0.98678689817872267</v>
+      </c>
+      <c r="D93" s="0">
+        <v>0.7401849593683727</v>
+      </c>
+      <c r="E93" s="0">
+        <v>0.99830582812325319</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="0">
+        <v>0.0035966514066977599</v>
+      </c>
+      <c r="C94" s="0">
+        <v>0.98564985710822994</v>
+      </c>
+      <c r="D94" s="0">
+        <v>0.74578105153397412</v>
+      </c>
+      <c r="E94" s="0">
+        <v>0.99820167429665108</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="0">
+        <v>0.0026879331580873535</v>
+      </c>
+      <c r="C95" s="0">
+        <v>0.99048725668762483</v>
+      </c>
+      <c r="D95" s="0">
+        <v>0.71475798749803643</v>
+      </c>
+      <c r="E95" s="0">
+        <v>0.99865603342095643</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="0">
+        <v>0.0032622125139389353</v>
+      </c>
+      <c r="C96" s="0">
+        <v>0.98785870651665686</v>
+      </c>
+      <c r="D96" s="0">
+        <v>0.72806103484855178</v>
+      </c>
+      <c r="E96" s="0">
+        <v>0.99836889374303039</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="0">
+        <v>0.0046018791643614269</v>
+      </c>
+      <c r="C97" s="0">
+        <v>0.98366845792728308</v>
+      </c>
+      <c r="D97" s="0">
+        <v>0.71364069180412104</v>
+      </c>
+      <c r="E97" s="0">
+        <v>0.99769906041781931</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="0">
+        <v>0.0030586825592028508</v>
+      </c>
+      <c r="C98" s="0">
+        <v>0.99109705311601892</v>
+      </c>
+      <c r="D98" s="0">
+        <v>0.65339223114451173</v>
+      </c>
+      <c r="E98" s="0">
+        <v>0.99847065872039853</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="0">
+        <v>0.0029220403830185308</v>
+      </c>
+      <c r="C99" s="0">
+        <v>0.99148094354744276</v>
+      </c>
+      <c r="D99" s="0">
+        <v>0.65408602607822597</v>
+      </c>
+      <c r="E99" s="0">
+        <v>0.99853897980849071</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" s="0">
+        <v>0.0029077072876145813</v>
+      </c>
+      <c r="C100" s="0">
+        <v>0.99381044951356634</v>
+      </c>
+      <c r="D100" s="0">
+        <v>0.52732393670438737</v>
+      </c>
+      <c r="E100" s="0">
+        <v>0.99854614635619277</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" s="0">
+        <v>0.0029822393837151194</v>
+      </c>
+      <c r="C101" s="0">
+        <v>0.99365933840043597</v>
+      </c>
+      <c r="D101" s="0">
+        <v>0.52669097458341763</v>
+      </c>
+      <c r="E101" s="0">
+        <v>0.99850888030814255</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" s="0">
+        <v>0.0042110634296804008</v>
+      </c>
+      <c r="C102" s="0">
+        <v>0.98070786632647844</v>
+      </c>
+      <c r="D102" s="0">
+        <v>0.77752788818311624</v>
+      </c>
+      <c r="E102" s="0">
+        <v>0.99789446828515982</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" s="0">
+        <v>0.0029220403830185308</v>
+      </c>
+      <c r="C103" s="0">
+        <v>0.9918427425176839</v>
+      </c>
+      <c r="D103" s="0">
+        <v>0.63887292072023028</v>
+      </c>
+      <c r="E103" s="0">
+        <v>0.99853897980849082</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" s="0">
+        <v>0.0023028506615679067</v>
+      </c>
+      <c r="C104" s="0">
+        <v>0.9910276055096926</v>
+      </c>
+      <c r="D104" s="0">
+        <v>0.74104291034342507</v>
+      </c>
+      <c r="E104" s="0">
+        <v>0.99884857466921617</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" s="0">
+        <v>0.0036214954387312724</v>
+      </c>
+      <c r="C105" s="0">
+        <v>0.99251149356603863</v>
+      </c>
+      <c r="D105" s="0">
+        <v>0.51278444515986588</v>
+      </c>
+      <c r="E105" s="0">
+        <v>0.99818925228063438</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" s="0">
+        <v>0.0027242436664440257</v>
+      </c>
+      <c r="C106" s="0">
+        <v>0.99118797587732566</v>
+      </c>
+      <c r="D106" s="0">
+        <v>0.68813245054459271</v>
+      </c>
+      <c r="E106" s="0">
+        <v>0.99863787816677796</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" s="0">
+        <v>0.0032325907834374395</v>
+      </c>
+      <c r="C107" s="0">
+        <v>0.98489275279293897</v>
+      </c>
+      <c r="D107" s="0">
+        <v>0.78280169635102048</v>
+      </c>
+      <c r="E107" s="0">
+        <v>0.9983837046082813</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" s="0">
+        <v>0.0033357890703458767</v>
+      </c>
+      <c r="C108" s="0">
+        <v>0.98816020774810442</v>
+      </c>
+      <c r="D108" s="0">
+        <v>0.71493145310554074</v>
+      </c>
+      <c r="E108" s="0">
+        <v>0.99833210546482698</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" s="0">
+        <v>0.0035899626288425834</v>
+      </c>
+      <c r="C109" s="0">
+        <v>0.9826143225304208</v>
+      </c>
+      <c r="D109" s="0">
+        <v>0.78993326524427365</v>
+      </c>
+      <c r="E109" s="0">
+        <v>0.99820501868557876</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" s="0">
+        <v>0.0040533993802369548</v>
+      </c>
+      <c r="C110" s="0">
+        <v>0.98581971564982007</v>
+      </c>
+      <c r="D110" s="0">
+        <v>0.71011549191891876</v>
+      </c>
+      <c r="E110" s="0">
+        <v>0.99797330030988141</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" s="0">
+        <v>0.0043725496378982332</v>
+      </c>
+      <c r="C111" s="0">
+        <v>0.98757512705561634</v>
+      </c>
+      <c r="D111" s="0">
+        <v>0.64372750708228632</v>
+      </c>
+      <c r="E111" s="0">
+        <v>0.99781372518105094</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" s="0">
+        <v>0.003780115027868315</v>
+      </c>
+      <c r="C112" s="0">
+        <v>0.98280310116876723</v>
+      </c>
+      <c r="D112" s="0">
+        <v>0.77642041218118352</v>
+      </c>
+      <c r="E112" s="0">
+        <v>0.99810994248606599</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" s="0">
+        <v>0.0026028901253572524</v>
+      </c>
+      <c r="C113" s="0">
+        <v>0.98947500009166989</v>
+      </c>
+      <c r="D113" s="0">
+        <v>0.75009840766435965</v>
+      </c>
+      <c r="E113" s="0">
+        <v>0.99869855493732151</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" s="0">
+        <v>0.0035421856441627511</v>
+      </c>
+      <c r="C114" s="0">
+        <v>0.9928278142358179</v>
+      </c>
+      <c r="D114" s="0">
+        <v>0.50259223827586574</v>
+      </c>
+      <c r="E114" s="0">
+        <v>0.99822890717791857</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" s="0">
+        <v>0.0026392006337139246</v>
+      </c>
+      <c r="C115" s="0">
+        <v>0.99314083838426437</v>
+      </c>
+      <c r="D115" s="0">
+        <v>0.61259761621101727</v>
+      </c>
+      <c r="E115" s="0">
+        <v>0.99868039968314304</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" s="0">
+        <v>0.0020677878969431328</v>
+      </c>
+      <c r="C116" s="0">
+        <v>0.99064209905945</v>
+      </c>
+      <c r="D116" s="0">
+        <v>0.77696942375292366</v>
+      </c>
+      <c r="E116" s="0">
+        <v>0.99896610605152836</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" s="0">
+        <v>0.0025570242200646134</v>
+      </c>
+      <c r="C117" s="0">
+        <v>0.98411094186823123</v>
+      </c>
+      <c r="D117" s="0">
+        <v>0.83651963405172058</v>
+      </c>
+      <c r="E117" s="0">
+        <v>0.99872148788996773</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" s="0">
+        <v>0.0065894017270424418</v>
+      </c>
+      <c r="C118" s="0">
+        <v>0.96628510778972188</v>
+      </c>
+      <c r="D118" s="0">
+        <v>0.79800917809100125</v>
+      </c>
+      <c r="E118" s="0">
+        <v>0.99670529913647865</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="0">
+        <v>0.0046515672284284529</v>
+      </c>
+      <c r="C119" s="0">
+        <v>0.98099008200774096</v>
+      </c>
+      <c r="D119" s="0">
+        <v>0.75067847095216078</v>
+      </c>
+      <c r="E119" s="0">
+        <v>0.99767421638578591</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" s="0">
+        <v>0.002030521848892864</v>
+      </c>
+      <c r="C120" s="0">
+        <v>0.99395985466012415</v>
+      </c>
+      <c r="D120" s="0">
+        <v>0.66180257636249462</v>
+      </c>
+      <c r="E120" s="0">
+        <v>0.99898473907555352</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" s="0">
+        <v>0.0026716889832962107</v>
+      </c>
+      <c r="C121" s="0">
+        <v>0.99083023503708267</v>
+      </c>
+      <c r="D121" s="0">
+        <v>0.70597694693779423</v>
+      </c>
+      <c r="E121" s="0">
+        <v>0.99866415550835186</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" s="0">
+        <v>0.0025933347284212861</v>
+      </c>
+      <c r="C122" s="0">
+        <v>0.99481322950383577</v>
+      </c>
+      <c r="D122" s="0">
+        <v>0.49742313075610445</v>
+      </c>
+      <c r="E122" s="0">
+        <v>0.99870333263578948</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="0">
+        <v>0.0029851060027959093</v>
+      </c>
+      <c r="C123" s="0">
+        <v>0.99028370181840097</v>
+      </c>
+      <c r="D123" s="0">
+        <v>0.68979712788366254</v>
+      </c>
+      <c r="E123" s="0">
+        <v>0.99850744699860217</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" s="0">
+        <v>0.005512508492359027</v>
+      </c>
+      <c r="C124" s="0">
+        <v>0.96977106092744836</v>
+      </c>
+      <c r="D124" s="0">
+        <v>0.81215923017861491</v>
+      </c>
+      <c r="E124" s="0">
+        <v>0.99724374575382035</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" s="0">
+        <v>0.0029573953516816064</v>
+      </c>
+      <c r="C125" s="0">
+        <v>0.99164917496181038</v>
+      </c>
+      <c r="D125" s="0">
+        <v>0.64290725870612619</v>
+      </c>
+      <c r="E125" s="0">
+        <v>0.99852130232415914</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" s="0">
+        <v>0.0025446022040478571</v>
+      </c>
+      <c r="C126" s="0">
+        <v>0.99478751582741853</v>
+      </c>
+      <c r="D126" s="0">
+        <v>0.50928730577646431</v>
+      </c>
+      <c r="E126" s="0">
+        <v>0.99872769889797608</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" s="0">
+        <v>0.0023257836142142265</v>
+      </c>
+      <c r="C127" s="0">
+        <v>0.99011240125617828</v>
+      </c>
+      <c r="D127" s="0">
+        <v>0.76245733615164402</v>
+      </c>
+      <c r="E127" s="0">
+        <v>0.99883710819289295</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" s="0">
         <v>0.0059425013544775153</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C128" s="0">
         <v>0.97371037485414313</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D128" s="0">
         <v>0.76805302168907841</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E128" s="0">
         <v>0.9970287493227612</v>
       </c>
-      <c r="F53" s="0" t="s">
-        <v>63</v>
+      <c r="F128" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" s="0">
+        <v>0.0044566371309347373</v>
+      </c>
+      <c r="C129" s="0">
+        <v>0.98676671682013495</v>
+      </c>
+      <c r="D129" s="0">
+        <v>0.65878836140835428</v>
+      </c>
+      <c r="E129" s="0">
+        <v>0.99777168143453276</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" s="0">
+        <v>0.0029851060027959093</v>
+      </c>
+      <c r="C130" s="0">
+        <v>0.98769476740221507</v>
+      </c>
+      <c r="D130" s="0">
+        <v>0.75443546050037225</v>
+      </c>
+      <c r="E130" s="0">
+        <v>0.99850744699860217</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="0">
+        <v>0.0027414433809287656</v>
+      </c>
+      <c r="C131" s="0">
+        <v>0.99342975688294677</v>
+      </c>
+      <c r="D131" s="0">
+        <v>0.58001463529845831</v>
+      </c>
+      <c r="E131" s="0">
+        <v>0.99862927830953563</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" s="0">
+        <v>0.0035918737082297767</v>
+      </c>
+      <c r="C132" s="0">
+        <v>0.99154420673980492</v>
+      </c>
+      <c r="D132" s="0">
+        <v>0.57163844415665999</v>
+      </c>
+      <c r="E132" s="0">
+        <v>0.99820406314588528</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" s="0">
+        <v>0.003446631674803087</v>
+      </c>
+      <c r="C133" s="0">
+        <v>0.99218590707072107</v>
+      </c>
+      <c r="D133" s="0">
+        <v>0.55548632698373868</v>
+      </c>
+      <c r="E133" s="0">
+        <v>0.99827668416259829</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="0">
+        <v>0.0039119795055846517</v>
+      </c>
+      <c r="C134" s="0">
+        <v>0.99185486002245615</v>
+      </c>
+      <c r="D134" s="0">
+        <v>0.51581943498961036</v>
+      </c>
+      <c r="E134" s="0">
+        <v>0.99804401024720768</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="0">
+        <v>0.0032679457521005151</v>
+      </c>
+      <c r="C135" s="0">
+        <v>0.99321307943034576</v>
+      </c>
+      <c r="D135" s="0">
+        <v>0.51523632465279823</v>
+      </c>
+      <c r="E135" s="0">
+        <v>0.99836602712394962</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="0">
+        <v>0.0038479583461136766</v>
+      </c>
+      <c r="C136" s="0">
+        <v>0.99207838481645871</v>
+      </c>
+      <c r="D136" s="0">
+        <v>0.51041258532838518</v>
+      </c>
+      <c r="E136" s="0">
+        <v>0.99807602082694313</v>
+      </c>
+      <c r="F136" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" s="0">
+        <v>0.002294250804325537</v>
+      </c>
+      <c r="C137" s="0">
+        <v>0.96733293462230996</v>
+      </c>
+      <c r="D137" s="0">
+        <v>0.92747970250708178</v>
+      </c>
+      <c r="E137" s="0">
+        <v>0.99885287459783711</v>
+      </c>
+      <c r="F137" s="0" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" s="0">
+        <v>0.0036128955814889027</v>
+      </c>
+      <c r="C138" s="0">
+        <v>0.99259898121902712</v>
+      </c>
+      <c r="D138" s="0">
+        <v>0.50823823156717673</v>
+      </c>
+      <c r="E138" s="0">
+        <v>0.99819355220925554</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="0">
+        <v>0.004669722482606789</v>
+      </c>
+      <c r="C139" s="0">
+        <v>0.99054970790792229</v>
+      </c>
+      <c r="D139" s="0">
+        <v>0.50121682989808347</v>
+      </c>
+      <c r="E139" s="0">
+        <v>0.99766513875869667</v>
+      </c>
+      <c r="F139" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="0">
+        <v>0.0046057013231358135</v>
+      </c>
+      <c r="C140" s="0">
+        <v>0.98278102540362744</v>
+      </c>
+      <c r="D140" s="0">
+        <v>0.7279372535360189</v>
+      </c>
+      <c r="E140" s="0">
+        <v>0.99769714933843212</v>
+      </c>
+      <c r="F140" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="0">
+        <v>0.0036539837883135585</v>
+      </c>
+      <c r="C141" s="0">
+        <v>0.98664042250308681</v>
+      </c>
+      <c r="D141" s="0">
+        <v>0.72284893762099389</v>
+      </c>
+      <c r="E141" s="0">
+        <v>0.99817300810584308</v>
+      </c>
+      <c r="F141" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" s="0">
+        <v>0.0031685696239664644</v>
+      </c>
+      <c r="C142" s="0">
+        <v>0.99343704680561851</v>
+      </c>
+      <c r="D142" s="0">
+        <v>0.51404515426454811</v>
+      </c>
+      <c r="E142" s="0">
+        <v>0.99841571518801664</v>
+      </c>
+      <c r="F142" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" s="0">
+        <v>0.0028761744777258918</v>
+      </c>
+      <c r="C143" s="0">
+        <v>0.99423795270873194</v>
+      </c>
+      <c r="D143" s="0">
+        <v>0.49797366820894801</v>
+      </c>
+      <c r="E143" s="0">
+        <v>0.99856191276113693</v>
+      </c>
+      <c r="F143" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" s="0">
+        <v>0.0045111028934697464</v>
+      </c>
+      <c r="C144" s="0">
+        <v>0.99096824555294294</v>
+      </c>
+      <c r="D144" s="0">
+        <v>0.49603786317246706</v>
+      </c>
+      <c r="E144" s="0">
+        <v>0.99774444855326516</v>
+      </c>
+      <c r="F144" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" s="0">
+        <v>0.0032927897841340276</v>
+      </c>
+      <c r="C145" s="0">
+        <v>0.99340941777260272</v>
+      </c>
+      <c r="D145" s="0">
+        <v>0.49709758357440703</v>
+      </c>
+      <c r="E145" s="0">
+        <v>0.99835360510793303</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" s="0">
+        <v>0.0031532809888689182</v>
+      </c>
+      <c r="C146" s="0">
+        <v>0.99359494878806776</v>
+      </c>
+      <c r="D146" s="0">
+        <v>0.50454506552689826</v>
+      </c>
+      <c r="E146" s="0">
+        <v>0.99842335950556549</v>
+      </c>
+      <c r="F146" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" s="0">
+        <v>0.0029965724791190689</v>
+      </c>
+      <c r="C147" s="0">
+        <v>0.99397446155606217</v>
+      </c>
+      <c r="D147" s="0">
+        <v>0.49970042281879978</v>
+      </c>
+      <c r="E147" s="0">
+        <v>0.9985017137604405</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" s="0">
+        <v>0.0068731970160406447</v>
+      </c>
+      <c r="C148" s="0">
+        <v>0.96834252088264827</v>
+      </c>
+      <c r="D148" s="0">
+        <v>0.77606272581123259</v>
+      </c>
+      <c r="E148" s="0">
+        <v>0.99656340149197964</v>
+      </c>
+      <c r="F148" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" s="0">
+        <v>0.0038336252507097271</v>
+      </c>
+      <c r="C149" s="0">
+        <v>0.98870740431591575</v>
+      </c>
+      <c r="D149" s="0">
+        <v>0.65669975482783183</v>
+      </c>
+      <c r="E149" s="0">
+        <v>0.99808318737464496</v>
+      </c>
+      <c r="F149" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" s="0">
+        <v>0.016388461284876005</v>
+      </c>
+      <c r="C150" s="0">
+        <v>0.9589290038474072</v>
+      </c>
+      <c r="D150" s="0">
+        <v>0.58485251403579197</v>
+      </c>
+      <c r="E150" s="0">
+        <v>0.99180576935756215</v>
+      </c>
+      <c r="F150" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" s="0">
+        <v>0.0057351492409670442</v>
+      </c>
+      <c r="C151" s="0">
+        <v>0.98329240222146308</v>
+      </c>
+      <c r="D151" s="0">
+        <v>0.65103180363101187</v>
+      </c>
+      <c r="E151" s="0">
+        <v>0.99713242537951652</v>
+      </c>
+      <c r="F151" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" s="0">
+        <v>0.011675739516057366</v>
+      </c>
+      <c r="C152" s="0">
+        <v>0.96272031174041672</v>
+      </c>
+      <c r="D152" s="0">
+        <v>0.67526752675188417</v>
+      </c>
+      <c r="E152" s="0">
+        <v>0.9941621302419712</v>
+      </c>
+      <c r="F152" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" s="0">
+        <v>0.006197630452667819</v>
+      </c>
+      <c r="C153" s="0">
+        <v>0.97927930487952974</v>
+      </c>
+      <c r="D153" s="0">
+        <v>0.69473737574156758</v>
+      </c>
+      <c r="E153" s="0">
+        <v>0.99690118477366596</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" s="0">
+        <v>0.017493065170673724</v>
+      </c>
+      <c r="C154" s="0">
+        <v>0.96501033938883574</v>
+      </c>
+      <c r="D154" s="0">
+        <v>0.48286338948704649</v>
+      </c>
+      <c r="E154" s="0">
+        <v>0.99125346741466314</v>
+      </c>
+      <c r="F154" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" s="0">
+        <v>0.0094684428238491249</v>
+      </c>
+      <c r="C155" s="0">
+        <v>0.98047387501514527</v>
+      </c>
+      <c r="D155" s="0">
+        <v>0.50570969484736172</v>
+      </c>
+      <c r="E155" s="0">
+        <v>0.99526577858807541</v>
+      </c>
+      <c r="F155" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" s="0">
+        <v>0.0062826734853979205</v>
+      </c>
+      <c r="C156" s="0">
+        <v>0.98133687224288269</v>
+      </c>
+      <c r="D156" s="0">
+        <v>0.6571211837655746</v>
+      </c>
+      <c r="E156" s="0">
+        <v>0.99685866325730099</v>
+      </c>
+      <c r="F156" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" s="0">
+        <v>0.0019827448642130317</v>
+      </c>
+      <c r="C157" s="0">
+        <v>0.92453441851001961</v>
+      </c>
+      <c r="D157" s="0">
+        <v>0.971747687619679</v>
+      </c>
+      <c r="E157" s="0">
+        <v>0.99900862756789355</v>
+      </c>
+      <c r="F157" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" s="0">
+        <v>0.0089237851984990384</v>
+      </c>
+      <c r="C158" s="0">
+        <v>0.97955946173996056</v>
+      </c>
+      <c r="D158" s="0">
+        <v>0.55458294224919646</v>
+      </c>
+      <c r="E158" s="0">
+        <v>0.99553810740075044</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" s="0">
+        <v>0.0073194340529502766</v>
+      </c>
+      <c r="C159" s="0">
+        <v>0.97493999901936068</v>
+      </c>
+      <c r="D159" s="0">
+        <v>0.70065777268246643</v>
+      </c>
+      <c r="E159" s="0">
+        <v>0.99634028297352495</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" s="0">
+        <v>0.0022904286455511505</v>
+      </c>
+      <c r="C160" s="0">
+        <v>0.99394624867128345</v>
+      </c>
+      <c r="D160" s="0">
+        <v>0.61936616693953628</v>
+      </c>
+      <c r="E160" s="0">
+        <v>0.9988547856772243</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="0">
+        <v>0.0025493799025158403</v>
+      </c>
+      <c r="C161" s="0">
+        <v>0.9935177694392463</v>
+      </c>
+      <c r="D161" s="0">
+        <v>0.60416967329748017</v>
+      </c>
+      <c r="E161" s="0">
+        <v>0.9987253100487421</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" s="0">
+        <v>0.0033405667688138599</v>
+      </c>
+      <c r="C162" s="0">
+        <v>0.99198491022435653</v>
+      </c>
+      <c r="D162" s="0">
+        <v>0.57988589496318865</v>
+      </c>
+      <c r="E162" s="0">
+        <v>0.998329716615593</v>
+      </c>
+      <c r="F162" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" s="0">
+        <v>0.0031915025766127837</v>
+      </c>
+      <c r="C163" s="0">
+        <v>0.99357231282218239</v>
+      </c>
+      <c r="D163" s="0">
+        <v>0.50029442978083649</v>
+      </c>
+      <c r="E163" s="0">
+        <v>0.99840424871169375</v>
+      </c>
+      <c r="F163" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" s="0">
+        <v>0.005990278339157348</v>
+      </c>
+      <c r="C164" s="0">
+        <v>0.96658424913501606</v>
+      </c>
+      <c r="D164" s="0">
+        <v>0.81478049256328222</v>
+      </c>
+      <c r="E164" s="0">
+        <v>0.99700486083042117</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="0">
+        <v>0.0027079994916528829</v>
+      </c>
+      <c r="C165" s="0">
+        <v>0.99415280160401631</v>
+      </c>
+      <c r="D165" s="0">
+        <v>0.53417164282055685</v>
+      </c>
+      <c r="E165" s="0">
+        <v>0.99864600025417372</v>
+      </c>
+      <c r="F165" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" s="0">
+        <v>0.0033396112291202633</v>
+      </c>
+      <c r="C166" s="0">
+        <v>0.98927821398909244</v>
+      </c>
+      <c r="D166" s="0">
+        <v>0.68519253764891475</v>
+      </c>
+      <c r="E166" s="0">
+        <v>0.9983301943854398</v>
+      </c>
+      <c r="F166" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" s="0">
+        <v>0.0023219614554398399</v>
+      </c>
+      <c r="C167" s="0">
+        <v>0.99008817865603138</v>
+      </c>
+      <c r="D167" s="0">
+        <v>0.76342159512930885</v>
+      </c>
+      <c r="E167" s="0">
+        <v>0.99883901927228014</v>
+      </c>
+      <c r="F167" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" s="0">
+        <v>0.0037887148851106851</v>
+      </c>
+      <c r="C168" s="0">
+        <v>0.99008758125472995</v>
+      </c>
+      <c r="D168" s="0">
+        <v>0.61400662891162061</v>
+      </c>
+      <c r="E168" s="0">
+        <v>0.99810564255744483</v>
+      </c>
+      <c r="F168" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" s="0">
+        <v>0.0028217087151908835</v>
+      </c>
+      <c r="C169" s="0">
+        <v>0.99208876732120754</v>
+      </c>
+      <c r="D169" s="0">
+        <v>0.6405150707473507</v>
+      </c>
+      <c r="E169" s="0">
+        <v>0.99858914564240464</v>
+      </c>
+      <c r="F169" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="0">
+        <v>0.0034676535480622135</v>
+      </c>
+      <c r="C170" s="0">
+        <v>0.99125349706476673</v>
+      </c>
+      <c r="D170" s="0">
+        <v>0.60008265674680983</v>
+      </c>
+      <c r="E170" s="0">
+        <v>0.99826617322596878</v>
+      </c>
+      <c r="F170" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" s="0">
+        <v>0.0028733078586451019</v>
+      </c>
+      <c r="C171" s="0">
+        <v>0.99350051349191537</v>
+      </c>
+      <c r="D171" s="0">
+        <v>0.55505266122012753</v>
+      </c>
+      <c r="E171" s="0">
+        <v>0.99856334607067732</v>
+      </c>
+      <c r="F171" s="0" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" s="0">
+        <v>0.0025598908391454033</v>
+      </c>
+      <c r="C172" s="0">
+        <v>0.99373665320986659</v>
+      </c>
+      <c r="D172" s="0">
+        <v>0.5887369220391</v>
+      </c>
+      <c r="E172" s="0">
+        <v>0.99872005458042734</v>
+      </c>
+      <c r="F172" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" s="0">
+        <v>0.003569896295277054</v>
+      </c>
+      <c r="C173" s="0">
+        <v>0.97827999485054506</v>
+      </c>
+      <c r="D173" s="0">
+        <v>0.83208302056623928</v>
+      </c>
+      <c r="E173" s="0">
+        <v>0.99821505185236159</v>
+      </c>
+      <c r="F173" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" s="0">
+        <v>0.0021719417235451671</v>
+      </c>
+      <c r="C174" s="0">
+        <v>0.99193018909147279</v>
+      </c>
+      <c r="D174" s="0">
+        <v>0.72868870913975914</v>
+      </c>
+      <c r="E174" s="0">
+        <v>0.99891402913822747</v>
+      </c>
+      <c r="F174" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="0">
+        <v>0.0031418145125457586</v>
+      </c>
+      <c r="C175" s="0">
+        <v>0.99309656360713949</v>
+      </c>
+      <c r="D175" s="0">
+        <v>0.54175927677799141</v>
+      </c>
+      <c r="E175" s="0">
+        <v>0.99842909274372704</v>
+      </c>
+      <c r="F175" s="0" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" s="0">
+        <v>0.0030758822736875902</v>
+      </c>
+      <c r="C176" s="0">
+        <v>0.99363175184548713</v>
+      </c>
+      <c r="D176" s="0">
+        <v>0.51393068707889689</v>
+      </c>
+      <c r="E176" s="0">
+        <v>0.99846205886315609</v>
+      </c>
+      <c r="F176" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" s="0">
+        <v>0.0031074150835762792</v>
+      </c>
+      <c r="C177" s="0">
+        <v>0.99328091780080596</v>
+      </c>
+      <c r="D177" s="0">
+        <v>0.53442611824635877</v>
+      </c>
+      <c r="E177" s="0">
+        <v>0.99844629245821181</v>
+      </c>
+      <c r="F177" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" s="0">
+        <v>0.003228768624663053</v>
+      </c>
+      <c r="C178" s="0">
+        <v>0.98915720936716445</v>
+      </c>
+      <c r="D178" s="0">
+        <v>0.6990014322085234</v>
+      </c>
+      <c r="E178" s="0">
+        <v>0.99838561568766848</v>
+      </c>
+      <c r="F178" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" s="0">
+        <v>0.0036692724234111047</v>
+      </c>
+      <c r="C179" s="0">
+        <v>0.9853208771038513</v>
+      </c>
+      <c r="D179" s="0">
+        <v>0.74637881858888344</v>
+      </c>
+      <c r="E179" s="0">
+        <v>0.99816536378829457</v>
+      </c>
+      <c r="F179" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" s="0">
+        <v>0.0037954036629658616</v>
+      </c>
+      <c r="C180" s="0">
+        <v>0.99030383190384352</v>
+      </c>
+      <c r="D180" s="0">
+        <v>0.60478564081106234</v>
+      </c>
+      <c r="E180" s="0">
+        <v>0.99810229816851703</v>
+      </c>
+      <c r="F180" s="0" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" s="0">
+        <v>0.0027328435236863959</v>
+      </c>
+      <c r="C181" s="0">
+        <v>0.99234341863309194</v>
+      </c>
+      <c r="D181" s="0">
+        <v>0.64034724534900378</v>
+      </c>
+      <c r="E181" s="0">
+        <v>0.99863357823815679</v>
+      </c>
+      <c r="F181" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" s="0">
+        <v>0.0018566136246582752</v>
+      </c>
+      <c r="C182" s="0">
+        <v>0.99235621686220632</v>
+      </c>
+      <c r="D182" s="0">
+        <v>0.75525485291473804</v>
+      </c>
+      <c r="E182" s="0">
+        <v>0.99907169318767086</v>
+      </c>
+      <c r="F182" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" s="0">
+        <v>0.0019187237047420568</v>
+      </c>
+      <c r="C183" s="0">
+        <v>0.99249611403790117</v>
+      </c>
+      <c r="D183" s="0">
+        <v>0.74238761452160473</v>
+      </c>
+      <c r="E183" s="0">
+        <v>0.999040638147629</v>
+      </c>
+      <c r="F183" s="0" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" s="0">
+        <v>0.0023984046309275709</v>
+      </c>
+      <c r="C184" s="0">
+        <v>0.99277500777665162</v>
+      </c>
+      <c r="D184" s="0">
+        <v>0.66564787194071651</v>
+      </c>
+      <c r="E184" s="0">
+        <v>0.99880079768453633</v>
+      </c>
+      <c r="F184" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" s="0">
+        <v>0.0032364129422118261</v>
+      </c>
+      <c r="C185" s="0">
+        <v>0.9905618279867684</v>
+      </c>
+      <c r="D185" s="0">
+        <v>0.65386730600029819</v>
+      </c>
+      <c r="E185" s="0">
+        <v>0.998381793528894</v>
+      </c>
+      <c r="F185" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" s="0">
+        <v>0.0032402351009862126</v>
+      </c>
+      <c r="C186" s="0">
+        <v>0.99350951631967643</v>
+      </c>
+      <c r="D186" s="0">
+        <v>0.49754166095103503</v>
+      </c>
+      <c r="E186" s="0">
+        <v>0.99837988244950682</v>
+      </c>
+      <c r="F186" s="0" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" s="0">
+        <v>0.0027060884122656896</v>
+      </c>
+      <c r="C187" s="0">
+        <v>0.99382414288043186</v>
+      </c>
+      <c r="D187" s="0">
+        <v>0.55912911363312812</v>
+      </c>
+      <c r="E187" s="0">
+        <v>0.99864695579386731</v>
+      </c>
+      <c r="F187" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" s="0">
+        <v>0.0025646685376133865</v>
+      </c>
+      <c r="C188" s="0">
+        <v>0.9856697505895603</v>
+      </c>
+      <c r="D188" s="0">
+        <v>0.81847303941912775</v>
+      </c>
+      <c r="E188" s="0">
+        <v>0.99871766573119325</v>
+      </c>
+      <c r="F188" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" s="0">
+        <v>0.0023668718210388818</v>
+      </c>
+      <c r="C189" s="0">
+        <v>0.98880338426720316</v>
+      </c>
+      <c r="D189" s="0">
+        <v>0.7862470135564702</v>
+      </c>
+      <c r="E189" s="0">
+        <v>0.9988165640894805</v>
+      </c>
+      <c r="F189" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" s="0">
+        <v>0.0043333725104607711</v>
+      </c>
+      <c r="C190" s="0">
+        <v>0.98153215092316615</v>
+      </c>
+      <c r="D190" s="0">
+        <v>0.76104126852125231</v>
+      </c>
+      <c r="E190" s="0">
+        <v>0.99783331374476947</v>
+      </c>
+      <c r="F190" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" s="0">
+        <v>0.0023219614554398399</v>
+      </c>
+      <c r="C191" s="0">
+        <v>0.98535029001889307</v>
+      </c>
+      <c r="D191" s="0">
+        <v>0.83918462983888331</v>
+      </c>
+      <c r="E191" s="0">
+        <v>0.99883901927228014</v>
+      </c>
+      <c r="F191" s="0" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" s="0">
+        <v>0.0080523329979389005</v>
+      </c>
+      <c r="C192" s="0">
+        <v>0.97499396006833039</v>
+      </c>
+      <c r="D192" s="0">
+        <v>0.66999698522115836</v>
+      </c>
+      <c r="E192" s="0">
+        <v>0.99597383350103053</v>
+      </c>
+      <c r="F192" s="0" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" s="0">
+        <v>0.0024308929805098569</v>
+      </c>
+      <c r="C193" s="0">
+        <v>0.99504465293125821</v>
+      </c>
+      <c r="D193" s="0">
+        <v>0.50701543551077544</v>
+      </c>
+      <c r="E193" s="0">
+        <v>0.99878455350974504</v>
+      </c>
+      <c r="F193" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" s="0">
+        <v>0.0018069255605912497</v>
+      </c>
+      <c r="C194" s="0">
+        <v>0.99247232767914584</v>
+      </c>
+      <c r="D194" s="0">
+        <v>0.75815858490854704</v>
+      </c>
+      <c r="E194" s="0">
+        <v>0.99909653721970426</v>
+      </c>
+      <c r="F194" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="0">
+        <v>0.0024576480919305628</v>
+      </c>
+      <c r="C195" s="0">
+        <v>0.99013318099770142</v>
+      </c>
+      <c r="D195" s="0">
+        <v>0.7484662823628182</v>
+      </c>
+      <c r="E195" s="0">
+        <v>0.99877117595403464</v>
+      </c>
+      <c r="F195" s="0" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" s="0">
+        <v>0.0033845215947193056</v>
+      </c>
+      <c r="C196" s="0">
+        <v>0.99322621706480696</v>
+      </c>
+      <c r="D196" s="0">
+        <v>0.49697679297532332</v>
+      </c>
+      <c r="E196" s="0">
+        <v>0.99830773920264027</v>
+      </c>
+      <c r="F196" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" s="0">
+        <v>0.0045483689415200153</v>
+      </c>
+      <c r="C197" s="0">
+        <v>0.99089767456777311</v>
+      </c>
+      <c r="D197" s="0">
+        <v>0.4957792484821355</v>
+      </c>
+      <c r="E197" s="0">
+        <v>0.99772581552924</v>
+      </c>
+      <c r="F197" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" s="0">
+        <v>0.0027079994916528829</v>
+      </c>
+      <c r="C198" s="0">
+        <v>0.99454190920706498</v>
+      </c>
+      <c r="D198" s="0">
+        <v>0.50115524339313211</v>
+      </c>
+      <c r="E198" s="0">
+        <v>0.99864600025417349</v>
+      </c>
+      <c r="F198" s="0" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" s="0">
+        <v>0.0029258625417929174</v>
+      </c>
+      <c r="C199" s="0">
+        <v>0.99355498599629444</v>
+      </c>
+      <c r="D199" s="0">
+        <v>0.54310966717742148</v>
+      </c>
+      <c r="E199" s="0">
+        <v>0.99853706872910353</v>
+      </c>
+      <c r="F199" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" s="0">
+        <v>0.0024184709644931007</v>
+      </c>
+      <c r="C200" s="0">
+        <v>0.99314563267336586</v>
+      </c>
+      <c r="D200" s="0">
+        <v>0.6447508798975744</v>
+      </c>
+      <c r="E200" s="0">
+        <v>0.99879076451775362</v>
+      </c>
+      <c r="F200" s="0" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" s="0">
+        <v>0.0032010579735487501</v>
+      </c>
+      <c r="C201" s="0">
+        <v>0.98935807744818605</v>
+      </c>
+      <c r="D201" s="0">
+        <v>0.69601222678696628</v>
+      </c>
+      <c r="E201" s="0">
+        <v>0.99839947101322568</v>
+      </c>
+      <c r="F201" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" s="0">
+        <v>0.0030223720508461781</v>
+      </c>
+      <c r="C202" s="0">
+        <v>0.9895961074460794</v>
+      </c>
+      <c r="D202" s="0">
+        <v>0.70648279648065837</v>
+      </c>
+      <c r="E202" s="0">
+        <v>0.99848881397457689</v>
+      </c>
+      <c r="F202" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" s="0">
+        <v>0.0028752189380322952</v>
+      </c>
+      <c r="C203" s="0">
+        <v>0.99012789396090795</v>
+      </c>
+      <c r="D203" s="0">
+        <v>0.70588628391735975</v>
+      </c>
+      <c r="E203" s="0">
+        <v>0.99856239053098372</v>
+      </c>
+      <c r="F203" s="0" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" s="0">
+        <v>0.0025197581720143446</v>
+      </c>
+      <c r="C204" s="0">
+        <v>0.99490741294504859</v>
+      </c>
+      <c r="D204" s="0">
+        <v>0.50269717556578153</v>
+      </c>
+      <c r="E204" s="0">
+        <v>0.99874012091399278</v>
+      </c>
+      <c r="F204" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" s="0">
+        <v>0.003035749606556531</v>
+      </c>
+      <c r="C205" s="0">
+        <v>0.9931443681677915</v>
+      </c>
+      <c r="D205" s="0">
+        <v>0.55416240500706881</v>
+      </c>
+      <c r="E205" s="0">
+        <v>0.99848212519672175</v>
+      </c>
+      <c r="F205" s="0" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" s="0">
+        <v>0.0029841504631023127</v>
+      </c>
+      <c r="C206" s="0">
+        <v>0.99331429882004818</v>
+      </c>
+      <c r="D206" s="0">
+        <v>0.55067658824115284</v>
+      </c>
+      <c r="E206" s="0">
+        <v>0.99850792476844896</v>
+      </c>
+      <c r="F206" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" s="0">
+        <v>0.0032316352437438429</v>
+      </c>
+      <c r="C207" s="0">
+        <v>0.99213394527087106</v>
+      </c>
+      <c r="D207" s="0">
+        <v>0.58594575975974295</v>
+      </c>
+      <c r="E207" s="0">
+        <v>0.99838418237812809</v>
+      </c>
+      <c r="F207" s="0" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" s="0">
+        <v>0.0026124455222932188</v>
+      </c>
+      <c r="C208" s="0">
+        <v>0.99384496088691621</v>
+      </c>
+      <c r="D208" s="0">
+        <v>0.57295426218744627</v>
+      </c>
+      <c r="E208" s="0">
+        <v>0.99869377723885355</v>
+      </c>
+      <c r="F208" s="0" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" s="0">
+        <v>0.0029612175104559929</v>
+      </c>
+      <c r="C209" s="0">
+        <v>0.99250110010831694</v>
+      </c>
+      <c r="D209" s="0">
+        <v>0.60216062745267052</v>
+      </c>
+      <c r="E209" s="0">
+        <v>0.99851939124477185</v>
+      </c>
+      <c r="F209" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" s="0">
+        <v>0.0019617229909539057</v>
+      </c>
+      <c r="C210" s="0">
+        <v>0.99180531551940943</v>
+      </c>
+      <c r="D210" s="0">
+        <v>0.75865243371902569</v>
+      </c>
+      <c r="E210" s="0">
+        <v>0.99901913850452306</v>
+      </c>
+      <c r="F210" s="0" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" s="0">
+        <v>0.0027079994916528829</v>
+      </c>
+      <c r="C211" s="0">
+        <v>0.98680928244039345</v>
+      </c>
+      <c r="D211" s="0">
+        <v>0.79200348997520131</v>
+      </c>
+      <c r="E211" s="0">
+        <v>0.9986460002541736</v>
+      </c>
+      <c r="F211" s="0" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" s="0">
+        <v>0.0036874276775894408</v>
+      </c>
+      <c r="C212" s="0">
+        <v>0.9675166219462159</v>
+      </c>
+      <c r="D212" s="0">
+        <v>0.88280879845376159</v>
+      </c>
+      <c r="E212" s="0">
+        <v>0.99815628616120533</v>
+      </c>
+      <c r="F212" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" s="0">
+        <v>0.0047174994672866209</v>
+      </c>
+      <c r="C213" s="0">
+        <v>0.99056475632539964</v>
+      </c>
+      <c r="D213" s="0">
+        <v>0.4953177247937427</v>
+      </c>
+      <c r="E213" s="0">
+        <v>0.99764125026635675</v>
+      </c>
+      <c r="F213" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" s="0">
+        <v>0.0042110634296804008</v>
+      </c>
+      <c r="C214" s="0">
+        <v>0.98429210698702552</v>
+      </c>
+      <c r="D214" s="0">
+        <v>0.72772084638990564</v>
+      </c>
+      <c r="E214" s="0">
+        <v>0.99789446828515982</v>
+      </c>
+      <c r="F214" s="0" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" s="0">
+        <v>0.002705132872572093</v>
+      </c>
+      <c r="C215" s="0">
+        <v>0.99035519452182807</v>
+      </c>
+      <c r="D215" s="0">
+        <v>0.7168265569600496</v>
+      </c>
+      <c r="E215" s="0">
+        <v>0.99864743356371399</v>
+      </c>
+      <c r="F215" s="0" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" s="0">
+        <v>0.0023888492339916045</v>
+      </c>
+      <c r="C216" s="0">
+        <v>0.99430886665875118</v>
+      </c>
+      <c r="D216" s="0">
+        <v>0.57786755775398613</v>
+      </c>
+      <c r="E216" s="0">
+        <v>0.99880557538300407</v>
+      </c>
+      <c r="F216" s="0" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" s="0">
+        <v>0.0022264074860801754</v>
+      </c>
+      <c r="C217" s="0">
+        <v>0.99481921372556936</v>
+      </c>
+      <c r="D217" s="0">
+        <v>0.56803538530797615</v>
+      </c>
+      <c r="E217" s="0">
+        <v>0.99888679625695986</v>
+      </c>
+      <c r="F217" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" s="0">
+        <v>0.0077522935341495557</v>
+      </c>
+      <c r="C218" s="0">
+        <v>0.97543251999717018</v>
+      </c>
+      <c r="D218" s="0">
+        <v>0.67675677799083545</v>
+      </c>
+      <c r="E218" s="0">
+        <v>0.99612385323292518</v>
+      </c>
+      <c r="F218" s="0" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" s="0">
+        <v>0.0031284369568354052</v>
+      </c>
+      <c r="C219" s="0">
+        <v>0.99027364413267538</v>
+      </c>
+      <c r="D219" s="0">
+        <v>0.6752360187017945</v>
+      </c>
+      <c r="E219" s="0">
+        <v>0.9984357815215823</v>
+      </c>
+      <c r="F219" s="0" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="0">
+        <v>0.002407004488169941</v>
+      </c>
+      <c r="C220" s="0">
+        <v>0.99270057333150463</v>
+      </c>
+      <c r="D220" s="0">
+        <v>0.66784624867692921</v>
+      </c>
+      <c r="E220" s="0">
+        <v>0.99879649775591517</v>
+      </c>
+      <c r="F220" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" s="0">
+        <v>0.0019321012604524097</v>
+      </c>
+      <c r="C221" s="0">
+        <v>0.99429124945518166</v>
+      </c>
+      <c r="D221" s="0">
+        <v>0.65962607431037912</v>
+      </c>
+      <c r="E221" s="0">
+        <v>0.99903394936977385</v>
+      </c>
+      <c r="F221" s="0" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" s="0">
+        <v>0.0048560527228581341</v>
+      </c>
+      <c r="C222" s="0">
+        <v>0.9877431951436757</v>
+      </c>
+      <c r="D222" s="0">
+        <v>0.59897514561778253</v>
+      </c>
+      <c r="E222" s="0">
+        <v>0.99757197363857097</v>
+      </c>
+      <c r="F222" s="0" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" s="0">
+        <v>0.0034265653412375576</v>
+      </c>
+      <c r="C223" s="0">
+        <v>0.99036163541429312</v>
+      </c>
+      <c r="D223" s="0">
+        <v>0.64107202740690783</v>
+      </c>
+      <c r="E223" s="0">
+        <v>0.99828671732938123</v>
+      </c>
+      <c r="F223" s="0" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" s="0">
+        <v>0.0020668323572495362</v>
+      </c>
+      <c r="C224" s="0">
+        <v>0.99099348727998982</v>
+      </c>
+      <c r="D224" s="0">
+        <v>0.76845546106351714</v>
+      </c>
+      <c r="E224" s="0">
+        <v>0.99896658382137526</v>
+      </c>
+      <c r="F224" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" s="0">
+        <v>0.0025474688231286471</v>
+      </c>
+      <c r="C225" s="0">
+        <v>0.99469807495323492</v>
+      </c>
+      <c r="D225" s="0">
+        <v>0.51697904403770734</v>
+      </c>
+      <c r="E225" s="0">
+        <v>0.99872626558843569</v>
+      </c>
+      <c r="F225" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" s="0">
+        <v>0.0025713573154685634</v>
+      </c>
+      <c r="C226" s="0">
+        <v>0.99385655760970526</v>
+      </c>
+      <c r="D226" s="0">
+        <v>0.57888207995669416</v>
+      </c>
+      <c r="E226" s="0">
+        <v>0.99871432134226568</v>
+      </c>
+      <c r="F226" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" s="0">
+        <v>0.0018633024025134517</v>
+      </c>
+      <c r="C227" s="0">
+        <v>0.99105917778945241</v>
+      </c>
+      <c r="D227" s="0">
+        <v>0.78973624884325211</v>
+      </c>
+      <c r="E227" s="0">
+        <v>0.99906834879874329</v>
+      </c>
+      <c r="F227" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" s="0">
+        <v>0.0033214559749419272</v>
+      </c>
+      <c r="C228" s="0">
+        <v>0.98597061021295962</v>
+      </c>
+      <c r="D228" s="0">
+        <v>0.75993972272559673</v>
+      </c>
+      <c r="E228" s="0">
+        <v>0.99833927201252903</v>
+      </c>
+      <c r="F228" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" s="0">
+        <v>0.0023162282172782597</v>
+      </c>
+      <c r="C229" s="0">
+        <v>0.99005789201875471</v>
+      </c>
+      <c r="D229" s="0">
+        <v>0.76471759568590625</v>
+      </c>
+      <c r="E229" s="0">
+        <v>0.99884188589136103</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" s="0">
+        <v>0.0033883437534936922</v>
+      </c>
+      <c r="C230" s="0">
+        <v>0.99190391899609964</v>
+      </c>
+      <c r="D230" s="0">
+        <v>0.57810660401439917</v>
+      </c>
+      <c r="E230" s="0">
+        <v>0.9983058281232533</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" s="0">
+        <v>0.0032220798468078765</v>
+      </c>
+      <c r="C231" s="0">
+        <v>0.99253945947976685</v>
+      </c>
+      <c r="D231" s="0">
+        <v>0.56490540579032855</v>
+      </c>
+      <c r="E231" s="0">
+        <v>0.99838896007659605</v>
+      </c>
+      <c r="F231" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" s="0">
+        <v>0.0037017607729933903</v>
+      </c>
+      <c r="C232" s="0">
+        <v>0.98959059347544809</v>
+      </c>
+      <c r="D232" s="0">
+        <v>0.64069505245325675</v>
+      </c>
+      <c r="E232" s="0">
+        <v>0.99814911961350328</v>
+      </c>
+      <c r="F232" s="0" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" s="0">
+        <v>0.0027271102855248156</v>
+      </c>
+      <c r="C233" s="0">
+        <v>0.99166152919811812</v>
+      </c>
+      <c r="D233" s="0">
+        <v>0.67022871866410738</v>
+      </c>
+      <c r="E233" s="0">
+        <v>0.99863644485723768</v>
+      </c>
+      <c r="F233" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" s="0">
+        <v>0.0030567714798156575</v>
+      </c>
+      <c r="C234" s="0">
+        <v>0.99379349465983691</v>
+      </c>
+      <c r="D234" s="0">
+        <v>0.50444168060903904</v>
+      </c>
+      <c r="E234" s="0">
+        <v>0.99847161426009223</v>
+      </c>
+      <c r="F234" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" s="0">
+        <v>0.0030089944951358252</v>
+      </c>
+      <c r="C235" s="0">
+        <v>0.99315814242632305</v>
+      </c>
+      <c r="D235" s="0">
+        <v>0.55720802022228633</v>
+      </c>
+      <c r="E235" s="0">
+        <v>0.99849550275243215</v>
+      </c>
+      <c r="F235" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" s="0">
+        <v>0.003601429105165743</v>
+      </c>
+      <c r="C236" s="0">
+        <v>0.98210754250669985</v>
+      </c>
+      <c r="D236" s="0">
+        <v>0.79512957047255517</v>
+      </c>
+      <c r="E236" s="0">
+        <v>0.99819928544741721</v>
+      </c>
+      <c r="F236" s="0" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" s="0">
+        <v>0.0025914236490340928</v>
+      </c>
+      <c r="C237" s="0">
+        <v>0.98418847734540349</v>
+      </c>
+      <c r="D237" s="0">
+        <v>0.83352066221820043</v>
+      </c>
+      <c r="E237" s="0">
+        <v>0.99870428817548307</v>
+      </c>
+      <c r="F237" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" s="0">
+        <v>0.0052564238544751266</v>
+      </c>
+      <c r="C238" s="0">
+        <v>0.98241006602264191</v>
+      </c>
+      <c r="D238" s="0">
+        <v>0.69593984831402067</v>
+      </c>
+      <c r="E238" s="0">
+        <v>0.9973717880727625</v>
+      </c>
+      <c r="F238" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" s="0">
+        <v>0.0019569452924859225</v>
+      </c>
+      <c r="C239" s="0">
+        <v>0.99573494831927523</v>
+      </c>
+      <c r="D239" s="0">
+        <v>0.53921415757144553</v>
+      </c>
+      <c r="E239" s="0">
+        <v>0.99902152735375704</v>
+      </c>
+      <c r="F239" s="0" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" s="0">
+        <v>0.002020010912263301</v>
+      </c>
+      <c r="C240" s="0">
+        <v>0.99373492486890869</v>
+      </c>
+      <c r="D240" s="0">
+        <v>0.67556001714676828</v>
+      </c>
+      <c r="E240" s="0">
+        <v>0.99898999454386839</v>
+      </c>
+      <c r="F240" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" s="0">
+        <v>0.0023668718210388818</v>
+      </c>
+      <c r="C241" s="0">
+        <v>0.99251003565461959</v>
+      </c>
+      <c r="D241" s="0">
+        <v>0.68163297751032836</v>
+      </c>
+      <c r="E241" s="0">
+        <v>0.9988165640894805</v>
+      </c>
+      <c r="F241" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" s="0">
+        <v>0.0045894571483446707</v>
+      </c>
+      <c r="C242" s="0">
+        <v>0.98526992512240408</v>
+      </c>
+      <c r="D242" s="0">
+        <v>0.68386108195683459</v>
+      </c>
+      <c r="E242" s="0">
+        <v>0.99770527142582766</v>
+      </c>
+      <c r="F242" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" s="0">
+        <v>0.0024977807590616219</v>
+      </c>
+      <c r="C243" s="0">
+        <v>0.99499021183532699</v>
+      </c>
+      <c r="D243" s="0">
+        <v>0.49892834319093315</v>
+      </c>
+      <c r="E243" s="0">
+        <v>0.99875110962046909</v>
+      </c>
+      <c r="F243" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="0">
+        <v>0.0016989495752148293</v>
+      </c>
+      <c r="C244" s="0">
+        <v>0.99231408015676015</v>
+      </c>
+      <c r="D244" s="0">
+        <v>0.77725693013746444</v>
+      </c>
+      <c r="E244" s="0">
+        <v>0.99915052521239245</v>
+      </c>
+      <c r="F244" s="0" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="0">
+        <v>0.0022359628830161417</v>
+      </c>
+      <c r="C245" s="0">
+        <v>0.99158773493384045</v>
+      </c>
+      <c r="D245" s="0">
+        <v>0.7319710779009202</v>
+      </c>
+      <c r="E245" s="0">
+        <v>0.99888201855849201</v>
+      </c>
+      <c r="F245" s="0" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" s="0">
+        <v>0.0026153121413740087</v>
+      </c>
+      <c r="C246" s="0">
+        <v>0.99468421859726519</v>
+      </c>
+      <c r="D246" s="0">
+        <v>0.50540136799512969</v>
+      </c>
+      <c r="E246" s="0">
+        <v>0.99869234392931316</v>
+      </c>
+      <c r="F246" s="0" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" s="0">
+        <v>0.0022588958356624615</v>
+      </c>
+      <c r="C247" s="0">
+        <v>0.99536869522267857</v>
+      </c>
+      <c r="D247" s="0">
+        <v>0.5100011879792079</v>
+      </c>
+      <c r="E247" s="0">
+        <v>0.99887055208216879</v>
+      </c>
+      <c r="F247" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" s="0">
+        <v>0.002417515424799504</v>
+      </c>
+      <c r="C248" s="0">
+        <v>0.99059374185841775</v>
+      </c>
+      <c r="D248" s="0">
+        <v>0.7405769447891003</v>
+      </c>
+      <c r="E248" s="0">
+        <v>0.9987912422876003</v>
+      </c>
+      <c r="F248" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" s="0">
+        <v>0.0022856509470831673</v>
+      </c>
+      <c r="C249" s="0">
+        <v>0.98987252549888938</v>
+      </c>
+      <c r="D249" s="0">
+        <v>0.77203142693075955</v>
+      </c>
+      <c r="E249" s="0">
+        <v>0.99885717452645839</v>
+      </c>
+      <c r="F249" s="0" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="0">
+        <v>0.0028761744777258918</v>
+      </c>
+      <c r="C250" s="0">
+        <v>0.99420000698446764</v>
+      </c>
+      <c r="D250" s="0">
+        <v>0.50123934940659864</v>
+      </c>
+      <c r="E250" s="0">
+        <v>0.99856191276113715</v>
+      </c>
+      <c r="F250" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" s="0">
+        <v>0.0021604752472220074</v>
+      </c>
+      <c r="C251" s="0">
+        <v>0.99557071708751321</v>
+      </c>
+      <c r="D251" s="0">
+        <v>0.51007330716156773</v>
+      </c>
+      <c r="E251" s="0">
+        <v>0.99891976237638902</v>
+      </c>
+      <c r="F251" s="0" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" s="0">
+        <v>0.0026286896970843616</v>
+      </c>
+      <c r="C252" s="0">
+        <v>0.99104669332961837</v>
+      </c>
+      <c r="D252" s="0">
+        <v>0.70377834778933135</v>
+      </c>
+      <c r="E252" s="0">
+        <v>0.9986856551514578</v>
+      </c>
+      <c r="F252" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" s="0">
+        <v>0.0025235803307887311</v>
+      </c>
+      <c r="C253" s="0">
+        <v>0.99089392013047006</v>
+      </c>
+      <c r="D253" s="0">
+        <v>0.72035142458230894</v>
+      </c>
+      <c r="E253" s="0">
+        <v>0.99873820983460571</v>
+      </c>
+      <c r="F253" s="0" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" s="0">
+        <v>0.0036597170264751383</v>
+      </c>
+      <c r="C254" s="0">
+        <v>0.98823003901768669</v>
+      </c>
+      <c r="D254" s="0">
+        <v>0.68541661970360868</v>
+      </c>
+      <c r="E254" s="0">
+        <v>0.99817014148676231</v>
+      </c>
+      <c r="F254" s="0" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="0">
+        <v>0.0024824921239640753</v>
+      </c>
+      <c r="C255" s="0">
+        <v>0.99484412491666607</v>
+      </c>
+      <c r="D255" s="0">
+        <v>0.51603564313286254</v>
+      </c>
+      <c r="E255" s="0">
+        <v>0.99875875393801783</v>
+      </c>
+      <c r="F255" s="0" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" s="0">
+        <v>0.0037122717096229538</v>
+      </c>
+      <c r="C256" s="0">
+        <v>0.9901296001154325</v>
+      </c>
+      <c r="D256" s="0">
+        <v>0.62020005915463317</v>
+      </c>
+      <c r="E256" s="0">
+        <v>0.99814386414518852</v>
+      </c>
+      <c r="F256" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" s="0">
+        <v>0.0023009395821807135</v>
+      </c>
+      <c r="C257" s="0">
+        <v>0.99445879473167786</v>
+      </c>
+      <c r="D257" s="0">
+        <v>0.58246263912798468</v>
+      </c>
+      <c r="E257" s="0">
+        <v>0.99884953020890976</v>
+      </c>
+      <c r="F257" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" s="0">
+        <v>0.0021996523746594695</v>
+      </c>
+      <c r="C258" s="0">
+        <v>0.99456160408857697</v>
+      </c>
+      <c r="D258" s="0">
+        <v>0.5933380581990334</v>
+      </c>
+      <c r="E258" s="0">
+        <v>0.99890017381267038</v>
+      </c>
+      <c r="F258" s="0" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" s="0">
+        <v>0.0025063806163039917</v>
+      </c>
+      <c r="C259" s="0">
+        <v>0.99418793739597533</v>
+      </c>
+      <c r="D259" s="0">
+        <v>0.56626218297111119</v>
+      </c>
+      <c r="E259" s="0">
+        <v>0.99874680969184815</v>
+      </c>
+      <c r="F259" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="0">
+        <v>0.0019263680222908299</v>
+      </c>
+      <c r="C260" s="0">
+        <v>0.99080775480910543</v>
+      </c>
+      <c r="D260" s="0">
+        <v>0.78851286952615374</v>
+      </c>
+      <c r="E260" s="0">
+        <v>0.99903681598885463</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" s="0">
+        <v>0.0021308535167205113</v>
+      </c>
+      <c r="C261" s="0">
+        <v>0.99116753502799826</v>
+      </c>
+      <c r="D261" s="0">
+        <v>0.75662127068150409</v>
+      </c>
+      <c r="E261" s="0">
+        <v>0.99893457324163981</v>
+      </c>
+      <c r="F261" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" s="0">
+        <v>0.0028895520334362448</v>
+      </c>
+      <c r="C262" s="0">
+        <v>0.98702120205910726</v>
+      </c>
+      <c r="D262" s="0">
+        <v>0.77448246038407742</v>
+      </c>
+      <c r="E262" s="0">
+        <v>0.99855522398328189</v>
+      </c>
+      <c r="F262" s="0" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" s="0">
+        <v>0.0019301901810652165</v>
+      </c>
+      <c r="C263" s="0">
+        <v>0.99218149601401817</v>
+      </c>
+      <c r="D263" s="0">
+        <v>0.75119891793980242</v>
+      </c>
+      <c r="E263" s="0">
+        <v>0.99903490490946745</v>
+      </c>
+      <c r="F263" s="0" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" s="0">
+        <v>0.0015623073990305093</v>
+      </c>
+      <c r="C264" s="0">
+        <v>0.98984630124974338</v>
+      </c>
+      <c r="D264" s="0">
+        <v>0.84457429225157854</v>
+      </c>
+      <c r="E264" s="0">
+        <v>0.99921884630048474</v>
+      </c>
+      <c r="F264" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="0">
+        <v>0.001568996176885686</v>
+      </c>
+      <c r="C265" s="0">
+        <v>0.99083073500205188</v>
+      </c>
+      <c r="D265" s="0">
+        <v>0.82731874948126416</v>
+      </c>
+      <c r="E265" s="0">
+        <v>0.99921550191155717</v>
+      </c>
+      <c r="F265" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" s="0">
+        <v>0.00269462193594253</v>
+      </c>
+      <c r="C266" s="0">
+        <v>0.98582455747836839</v>
+      </c>
+      <c r="D266" s="0">
+        <v>0.80722178779014064</v>
+      </c>
+      <c r="E266" s="0">
+        <v>0.99865268903202886</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" s="0">
+        <v>0.0032870565459724478</v>
+      </c>
+      <c r="C267" s="0">
+        <v>0.98569077955287554</v>
+      </c>
+      <c r="D267" s="0">
+        <v>0.76700777183400859</v>
+      </c>
+      <c r="E267" s="0">
+        <v>0.99835647172701392</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" s="0">
+        <v>0.0029889281615702958</v>
+      </c>
+      <c r="C268" s="0">
+        <v>0.98528483683400192</v>
+      </c>
+      <c r="D268" s="0">
+        <v>0.79390107794128362</v>
+      </c>
+      <c r="E268" s="0">
+        <v>0.99850553591921498</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" s="0">
+        <v>0.0022493404387264951</v>
+      </c>
+      <c r="C269" s="0">
+        <v>0.99294047893747572</v>
+      </c>
+      <c r="D269" s="0">
+        <v>0.6791306425757816</v>
+      </c>
+      <c r="E269" s="0">
+        <v>0.99887532978063676</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="0">
+        <v>0.0026420672527947145</v>
+      </c>
+      <c r="C270" s="0">
+        <v>0.99468443607191892</v>
+      </c>
+      <c r="D270" s="0">
+        <v>0.50032127151160743</v>
+      </c>
+      <c r="E270" s="0">
+        <v>0.99867896637360265</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" s="0">
+        <v>0.0026764666817641939</v>
+      </c>
+      <c r="C271" s="0">
+        <v>0.9924542128422067</v>
+      </c>
+      <c r="D271" s="0">
+        <v>0.64263388043680658</v>
+      </c>
+      <c r="E271" s="0">
+        <v>0.99866176665911777</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" s="0">
+        <v>0.0029669507486175728</v>
+      </c>
+      <c r="C272" s="0">
+        <v>0.99056233321292164</v>
+      </c>
+      <c r="D272" s="0">
+        <v>0.68266852063534766</v>
+      </c>
+      <c r="E272" s="0">
+        <v>0.99851652462569107</v>
+      </c>
+      <c r="F272" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" s="0">
+        <v>0.0025923791887276894</v>
+      </c>
+      <c r="C273" s="0">
+        <v>0.99217374512322809</v>
+      </c>
+      <c r="D273" s="0">
+        <v>0.66617299662024754</v>
+      </c>
+      <c r="E273" s="0">
+        <v>0.99870381040563627</v>
+      </c>
+      <c r="F273" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" s="0">
+        <v>0.0095114421100609726</v>
+      </c>
+      <c r="C274" s="0">
+        <v>0.96397073814055734</v>
+      </c>
+      <c r="D274" s="0">
+        <v>0.72658688072570177</v>
+      </c>
+      <c r="E274" s="0">
+        <v>0.99524427894496947</v>
+      </c>
+      <c r="F274" s="0" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="0">
+        <v>0.0022846954073895706</v>
+      </c>
+      <c r="C275" s="0">
+        <v>0.99511154233814403</v>
+      </c>
+      <c r="D275" s="0">
+        <v>0.53035523962087983</v>
+      </c>
+      <c r="E275" s="0">
+        <v>0.99885765229630519</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" s="0">
+        <v>0.0027653318732686815</v>
+      </c>
+      <c r="C276" s="0">
+        <v>0.99445427690158128</v>
+      </c>
+      <c r="D276" s="0">
+        <v>0.49860005985035055</v>
+      </c>
+      <c r="E276" s="0">
+        <v>0.99861733406336572</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" s="0">
+        <v>0.0028446416678372028</v>
+      </c>
+      <c r="C277" s="0">
+        <v>0.99386249006625393</v>
+      </c>
+      <c r="D277" s="0">
+        <v>0.53367879635531068</v>
+      </c>
+      <c r="E277" s="0">
+        <v>0.99857767916608142</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" s="0">
+        <v>0.0034447205954158937</v>
+      </c>
+      <c r="C278" s="0">
+        <v>0.99030435936069616</v>
+      </c>
+      <c r="D278" s="0">
+        <v>0.64128163900055879</v>
+      </c>
+      <c r="E278" s="0">
+        <v>0.998277639702292</v>
+      </c>
+      <c r="F278" s="0" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" s="0">
+        <v>0.0029612175104559929</v>
+      </c>
+      <c r="C279" s="0">
+        <v>0.99206638238198741</v>
+      </c>
+      <c r="D279" s="0">
+        <v>0.62379821498926802</v>
+      </c>
+      <c r="E279" s="0">
+        <v>0.99851939124477196</v>
+      </c>
+      <c r="F279" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="0">
+        <v>0.0033310113718778935</v>
+      </c>
+      <c r="C280" s="0">
+        <v>0.98954427341484286</v>
+      </c>
+      <c r="D280" s="0">
+        <v>0.67809759793566471</v>
+      </c>
+      <c r="E280" s="0">
+        <v>0.99833449431406096</v>
+      </c>
+      <c r="F280" s="0" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" s="0">
+        <v>0.0037915815041914751</v>
+      </c>
+      <c r="C281" s="0">
+        <v>0.98776985418094898</v>
+      </c>
+      <c r="D281" s="0">
+        <v>0.68620347345215271</v>
+      </c>
+      <c r="E281" s="0">
+        <v>0.99810420924790433</v>
+      </c>
+      <c r="F281" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" s="0">
+        <v>0.0089753843419532568</v>
+      </c>
+      <c r="C282" s="0">
+        <v>0.97001428435921921</v>
+      </c>
+      <c r="D282" s="0">
+        <v>0.69178317435190684</v>
+      </c>
+      <c r="E282" s="0">
+        <v>0.99551230782902345</v>
+      </c>
+      <c r="F282" s="0" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" s="0">
+        <v>0.0031293924965290019</v>
+      </c>
+      <c r="C283" s="0">
+        <v>0.99322057927831964</v>
+      </c>
+      <c r="D283" s="0">
+        <v>0.53527864655700153</v>
+      </c>
+      <c r="E283" s="0">
+        <v>0.9984353037517355</v>
+      </c>
+      <c r="F283" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" s="0">
+        <v>0.0031542365285625149</v>
+      </c>
+      <c r="C284" s="0">
+        <v>0.98302121222351291</v>
+      </c>
+      <c r="D284" s="0">
+        <v>0.81108058137534733</v>
+      </c>
+      <c r="E284" s="0">
+        <v>0.99842288173571869</v>
+      </c>
+      <c r="F284" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" s="0">
+        <v>0.0029851060027959093</v>
+      </c>
+      <c r="C285" s="0">
+        <v>0.98897334142388638</v>
+      </c>
+      <c r="D285" s="0">
+        <v>0.72630661685193509</v>
+      </c>
+      <c r="E285" s="0">
+        <v>0.99850744699860217</v>
+      </c>
+      <c r="F285" s="0" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" s="0">
+        <v>0.005431287618403312</v>
+      </c>
+      <c r="C286" s="0">
+        <v>0.97852808831319282</v>
+      </c>
+      <c r="D286" s="0">
+        <v>0.74164972220699155</v>
+      </c>
+      <c r="E286" s="0">
+        <v>0.99728435619079847</v>
+      </c>
+      <c r="F286" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" s="0">
+        <v>0.0045426357033584355</v>
+      </c>
+      <c r="C287" s="0">
+        <v>0.9806850478791399</v>
+      </c>
+      <c r="D287" s="0">
+        <v>0.76029047905220326</v>
+      </c>
+      <c r="E287" s="0">
+        <v>0.99772868214832067</v>
+      </c>
+      <c r="F287" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" s="0">
+        <v>0.0032488349582285823</v>
+      </c>
+      <c r="C288" s="0">
+        <v>0.99057715184243855</v>
+      </c>
+      <c r="D288" s="0">
+        <v>0.65197902752916437</v>
+      </c>
+      <c r="E288" s="0">
+        <v>0.99837558252088565</v>
+      </c>
+      <c r="F288" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" s="0">
+        <v>0.003717049408090937</v>
+      </c>
+      <c r="C289" s="0">
+        <v>0.98651229812088004</v>
+      </c>
+      <c r="D289" s="0">
+        <v>0.72070872088556048</v>
+      </c>
+      <c r="E289" s="0">
+        <v>0.99814147529595454</v>
+      </c>
+      <c r="F289" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" s="0">
+        <v>0.0016999051149084259</v>
+      </c>
+      <c r="C290" s="0">
+        <v>0.9907738039919296</v>
+      </c>
+      <c r="D290" s="0">
+        <v>0.81405531483799276</v>
+      </c>
+      <c r="E290" s="0">
+        <v>0.99915004744254565</v>
+      </c>
+      <c r="F290" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" s="0">
+        <v>0.0013511331267456515</v>
+      </c>
+      <c r="C291" s="0">
+        <v>0.99051059204406411</v>
+      </c>
+      <c r="D291" s="0">
+        <v>0.85626740224141695</v>
+      </c>
+      <c r="E291" s="0">
+        <v>0.99932443343662725</v>
+      </c>
+      <c r="F291" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" s="0">
+        <v>0.0023936269324595877</v>
+      </c>
+      <c r="C292" s="0">
+        <v>0.99443691600214634</v>
+      </c>
+      <c r="D292" s="0">
+        <v>0.56734232169385423</v>
+      </c>
+      <c r="E292" s="0">
+        <v>0.99880318653377009</v>
+      </c>
+      <c r="F292" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" s="0">
+        <v>0.0021174759610101583</v>
+      </c>
+      <c r="C293" s="0">
+        <v>0.99536287362071796</v>
+      </c>
+      <c r="D293" s="0">
+        <v>0.54125162888666845</v>
+      </c>
+      <c r="E293" s="0">
+        <v>0.99894126201949496</v>
+      </c>
+      <c r="F293" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" s="0">
+        <v>0.0033740106580897422</v>
+      </c>
+      <c r="C294" s="0">
+        <v>0.98919031701834137</v>
+      </c>
+      <c r="D294" s="0">
+        <v>0.68450882485648645</v>
+      </c>
+      <c r="E294" s="0">
+        <v>0.99831299467095524</v>
+      </c>
+      <c r="F294" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" s="0">
+        <v>0.0057074385898527417</v>
+      </c>
+      <c r="C295" s="0">
+        <v>0.98837120760089681</v>
+      </c>
+      <c r="D295" s="0">
+        <v>0.50352279033196456</v>
+      </c>
+      <c r="E295" s="0">
+        <v>0.9971462807050735</v>
+      </c>
+      <c r="F295" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" s="0">
+        <v>0.0028828632555810683</v>
+      </c>
+      <c r="C296" s="0">
+        <v>0.99303592045905309</v>
+      </c>
+      <c r="D296" s="0">
+        <v>0.5831635968891542</v>
+      </c>
+      <c r="E296" s="0">
+        <v>0.99855856837220935</v>
+      </c>
+      <c r="F296" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" s="0">
+        <v>0.0027662874129622782</v>
+      </c>
+      <c r="C297" s="0">
+        <v>0.99381865216397736</v>
+      </c>
+      <c r="D297" s="0">
+        <v>0.54971964534284512</v>
+      </c>
+      <c r="E297" s="0">
+        <v>0.99861685629351871</v>
+      </c>
+      <c r="F297" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" s="0">
+        <v>0.0033099894986187675</v>
+      </c>
+      <c r="C298" s="0">
+        <v>0.99219250928854041</v>
+      </c>
+      <c r="D298" s="0">
+        <v>0.57275047834741621</v>
+      </c>
+      <c r="E298" s="0">
+        <v>0.99834500525069059</v>
+      </c>
+      <c r="F298" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" s="0">
+        <v>0.0032201687674206832</v>
+      </c>
+      <c r="C299" s="0">
+        <v>0.99238606996646284</v>
+      </c>
+      <c r="D299" s="0">
+        <v>0.57385897423895427</v>
+      </c>
+      <c r="E299" s="0">
+        <v>0.99838991561628965</v>
+      </c>
+      <c r="F299" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" s="0">
+        <v>0.0027557764763327152</v>
+      </c>
+      <c r="C300" s="0">
+        <v>0.99276185786547289</v>
+      </c>
+      <c r="D300" s="0">
+        <v>0.61652200828340109</v>
+      </c>
+      <c r="E300" s="0">
+        <v>0.99862211176183358</v>
+      </c>
+      <c r="F300" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" s="0">
+        <v>0.0034447205954158937</v>
+      </c>
+      <c r="C301" s="0">
+        <v>0.99238736721977172</v>
+      </c>
+      <c r="D301" s="0">
+        <v>0.54406658559806442</v>
+      </c>
+      <c r="E301" s="0">
+        <v>0.998277639702292</v>
+      </c>
+      <c r="F301" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" s="0">
+        <v>0.0034447205954158937</v>
+      </c>
+      <c r="C302" s="0">
+        <v>0.99251407418979676</v>
+      </c>
+      <c r="D302" s="0">
+        <v>0.536407549650602</v>
+      </c>
+      <c r="E302" s="0">
+        <v>0.998277639702292</v>
+      </c>
+      <c r="F302" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" s="0">
+        <v>0.0040132667131058961</v>
+      </c>
+      <c r="C303" s="0">
+        <v>0.99195932359137462</v>
+      </c>
+      <c r="D303" s="0">
+        <v>0.4968823043141754</v>
+      </c>
+      <c r="E303" s="0">
+        <v>0.99799336664344707</v>
+      </c>
+      <c r="F303" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" s="0">
+        <v>0.0024633813300921426</v>
+      </c>
+      <c r="C304" s="0">
+        <v>0.99274628182896651</v>
+      </c>
+      <c r="D304" s="0">
+        <v>0.65794011730989799</v>
+      </c>
+      <c r="E304" s="0">
+        <v>0.99876830933495386</v>
+      </c>
+      <c r="F304" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" s="0">
+        <v>0.0020458104839904102</v>
+      </c>
+      <c r="C305" s="0">
+        <v>0.99317112180499834</v>
+      </c>
+      <c r="D305" s="0">
+        <v>0.69837615570263023</v>
+      </c>
+      <c r="E305" s="0">
+        <v>0.99897709475800478</v>
+      </c>
+      <c r="F305" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" s="0">
+        <v>0.0031064595438826826</v>
+      </c>
+      <c r="C306" s="0">
+        <v>0.9911662324977385</v>
+      </c>
+      <c r="D306" s="0">
+        <v>0.64524580958387134</v>
+      </c>
+      <c r="E306" s="0">
+        <v>0.99844677022805872</v>
+      </c>
+      <c r="F306" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" s="0">
+        <v>0.0025254914101759244</v>
+      </c>
+      <c r="C307" s="0">
+        <v>0.99492406561089552</v>
+      </c>
+      <c r="D307" s="0">
+        <v>0.49993871680635227</v>
+      </c>
+      <c r="E307" s="0">
+        <v>0.998737254294912</v>
+      </c>
+      <c r="F307" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" s="0">
+        <v>0.0022999840424871168</v>
+      </c>
+      <c r="C308" s="0">
+        <v>0.99300296279896749</v>
+      </c>
+      <c r="D308" s="0">
+        <v>0.66899702887970414</v>
+      </c>
+      <c r="E308" s="0">
+        <v>0.99885000797875656</v>
+      </c>
+      <c r="F308" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" s="0">
+        <v>0.0021767194220131503</v>
+      </c>
+      <c r="C309" s="0">
+        <v>0.9955537172908695</v>
+      </c>
+      <c r="D309" s="0">
+        <v>0.5082686351709047</v>
+      </c>
+      <c r="E309" s="0">
+        <v>0.99891164028899349</v>
+      </c>
+      <c r="F309" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" s="0">
+        <v>0.0027003551741041098</v>
+      </c>
+      <c r="C310" s="0">
+        <v>0.99385412969092912</v>
+      </c>
+      <c r="D310" s="0">
+        <v>0.55792975526998434</v>
+      </c>
+      <c r="E310" s="0">
+        <v>0.99864982241294797</v>
+      </c>
+      <c r="F310" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" s="0">
+        <v>0.0022818287883087807</v>
+      </c>
+      <c r="C311" s="0">
+        <v>0.99539201031265045</v>
+      </c>
+      <c r="D311" s="0">
+        <v>0.50253373059610407</v>
+      </c>
+      <c r="E311" s="0">
+        <v>0.99885908560584569</v>
+      </c>
+      <c r="F311" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" s="0">
+        <v>0.0031991468941615568</v>
+      </c>
+      <c r="C312" s="0">
+        <v>0.99273354332450714</v>
+      </c>
+      <c r="D312" s="0">
+        <v>0.55654879241399102</v>
+      </c>
+      <c r="E312" s="0">
+        <v>0.99840042655291927</v>
+      </c>
+      <c r="F312" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" s="0">
+        <v>0.0024308929805098569</v>
+      </c>
+      <c r="C313" s="0">
+        <v>0.99483592615375527</v>
+      </c>
+      <c r="D313" s="0">
+        <v>0.52684337049224073</v>
+      </c>
+      <c r="E313" s="0">
+        <v>0.99878455350974504</v>
+      </c>
+      <c r="F313" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" s="0">
+        <v>0.002684110999312967</v>
+      </c>
+      <c r="C314" s="0">
+        <v>0.99336438899633772</v>
+      </c>
+      <c r="D314" s="0">
+        <v>0.59282213674613282</v>
+      </c>
+      <c r="E314" s="0">
+        <v>0.9986579445003434</v>
+      </c>
+      <c r="F314" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" s="0">
+        <v>0.0022235408669993855</v>
+      </c>
+      <c r="C315" s="0">
+        <v>0.99413360461476941</v>
+      </c>
+      <c r="D315" s="0">
+        <v>0.61875122869036292</v>
+      </c>
+      <c r="E315" s="0">
+        <v>0.99888822956650036</v>
+      </c>
+      <c r="F315" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" s="0">
+        <v>0.0030969041469467162</v>
+      </c>
+      <c r="C316" s="0">
+        <v>0.99323606751148641</v>
+      </c>
+      <c r="D316" s="0">
+        <v>0.53905711933293976</v>
+      </c>
+      <c r="E316" s="0">
+        <v>0.99845154792652679</v>
+      </c>
+      <c r="F316" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" s="0">
+        <v>0.0027787094289790345</v>
+      </c>
+      <c r="C317" s="0">
+        <v>0.9939630524309494</v>
+      </c>
+      <c r="D317" s="0">
+        <v>0.53694516848123452</v>
+      </c>
+      <c r="E317" s="0">
+        <v>0.99861064528551036</v>
+      </c>
+      <c r="F317" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" s="0">
+        <v>0.0047614542931920661</v>
+      </c>
+      <c r="C318" s="0">
+        <v>0.98038298641873656</v>
+      </c>
+      <c r="D318" s="0">
+        <v>0.75254056686379245</v>
+      </c>
+      <c r="E318" s="0">
+        <v>0.99761927285340402</v>
+      </c>
+      <c r="F318" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" s="0">
+        <v>0.0054771535236959514</v>
+      </c>
+      <c r="C319" s="0">
+        <v>0.9787967392536453</v>
+      </c>
+      <c r="D319" s="0">
+        <v>0.73623627875815978</v>
+      </c>
+      <c r="E319" s="0">
+        <v>0.99726142323815203</v>
+      </c>
+      <c r="F319" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" s="0">
+        <v>0.0025770905536301432</v>
+      </c>
+      <c r="C320" s="0">
+        <v>0.99456455087451856</v>
+      </c>
+      <c r="D320" s="0">
+        <v>0.52330303541786738</v>
+      </c>
+      <c r="E320" s="0">
+        <v>0.99871145472318479</v>
+      </c>
+      <c r="F320" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" s="0">
+        <v>0.0021174759610101583</v>
+      </c>
+      <c r="C321" s="0">
+        <v>0.99266054140143978</v>
+      </c>
+      <c r="D321" s="0">
+        <v>0.70938126408742097</v>
+      </c>
+      <c r="E321" s="0">
+        <v>0.99894126201949507</v>
+      </c>
+      <c r="F321" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" s="0">
+        <v>0.0065196473294098873</v>
+      </c>
+      <c r="C322" s="0">
+        <v>0.96625724070298469</v>
+      </c>
+      <c r="D322" s="0">
+        <v>0.80030667031069991</v>
+      </c>
+      <c r="E322" s="0">
+        <v>0.9967401763352951</v>
+      </c>
+      <c r="F322" s="0" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" s="0">
+        <v>0.0029201293036313376</v>
+      </c>
+      <c r="C323" s="0">
+        <v>0.98637303142453781</v>
+      </c>
+      <c r="D323" s="0">
+        <v>0.78279794231399247</v>
+      </c>
+      <c r="E323" s="0">
+        <v>0.9985399353481843</v>
+      </c>
+      <c r="F323" s="0" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" s="0">
+        <v>0.0024824921239640753</v>
+      </c>
+      <c r="C324" s="0">
+        <v>0.99330993999610484</v>
+      </c>
+      <c r="D324" s="0">
+        <v>0.62645194295783324</v>
+      </c>
+      <c r="E324" s="0">
+        <v>0.99875875393801794</v>
+      </c>
+      <c r="F324" s="0" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" s="0">
+        <v>0.0022330962639353518</v>
+      </c>
+      <c r="C325" s="0">
+        <v>0.99549319428493876</v>
+      </c>
+      <c r="D325" s="0">
+        <v>0.50227765238020028</v>
+      </c>
+      <c r="E325" s="0">
+        <v>0.99888345186803229</v>
+      </c>
+      <c r="F325" s="0" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
